--- a/PREGAME/1_ELICITACION/1.2 CRONOGRAMA/G3_Linea de Tiempo V1.4.xlsx
+++ b/PREGAME/1_ELICITACION/1.2 CRONOGRAMA/G3_Linea de Tiempo V1.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\UNIVERSIDAD\Aseguramiento de la Calidad del Software\Segundo Parcial\15390_G3_ACSW\PREGAME\1_ELICITACION\1.2 CRONOGRAMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D283F9-61A4-48AF-A348-80251FC8EB9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67626900-214A-4500-B400-797329B6A0D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -281,7 +281,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,6 +399,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,7 +752,6 @@
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -756,6 +761,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -778,6 +800,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -825,32 +856,7 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -860,8 +866,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFD99ABA"/>
       <color rgb="FFE83A91"/>
-      <color rgb="FFD99ABA"/>
       <color rgb="FF9367B5"/>
     </mruColors>
   </colors>
@@ -2359,16 +2365,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>226219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>178594</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2386,8 +2392,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16430625" y="2343150"/>
-          <a:ext cx="1352550" cy="466725"/>
+          <a:off x="21093113" y="2428875"/>
+          <a:ext cx="1357312" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3484,16 +3490,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>83344</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>235744</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3511,7 +3517,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4848225" y="3571875"/>
+          <a:off x="4798219" y="4169569"/>
           <a:ext cx="152400" cy="133350"/>
         </a:xfrm>
         <a:prstGeom prst="star5">
@@ -5236,16 +5242,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
@@ -5260,32 +5266,32 @@
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="52"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="64"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="67"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
@@ -5296,11 +5302,11 @@
       <c r="C6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
       <c r="H6" s="6" t="s">
         <v>4</v>
       </c>
@@ -5311,20 +5317,20 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -5356,11 +5362,11 @@
         <v>9</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -5423,8 +5429,8 @@
   </sheetPr>
   <dimension ref="A1:AR64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I32" zoomScale="80" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="AB53" sqref="AB53"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="AS18" sqref="AS18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5451,14 +5457,17 @@
     <col min="20" max="20" width="8.7109375" customWidth="1"/>
     <col min="21" max="21" width="9" customWidth="1"/>
     <col min="22" max="22" width="9.7109375" customWidth="1"/>
-    <col min="23" max="24" width="10" customWidth="1"/>
-    <col min="25" max="25" width="9" customWidth="1"/>
-    <col min="26" max="26" width="7" customWidth="1"/>
+    <col min="23" max="23" width="10" customWidth="1"/>
+    <col min="24" max="24" width="8.42578125" customWidth="1"/>
+    <col min="25" max="25" width="8.140625" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" customWidth="1"/>
     <col min="27" max="27" width="10.42578125" customWidth="1"/>
     <col min="28" max="28" width="8.42578125" customWidth="1"/>
     <col min="29" max="29" width="15.140625" customWidth="1"/>
-    <col min="30" max="30" width="7.140625" customWidth="1"/>
-    <col min="31" max="33" width="6.42578125" customWidth="1"/>
+    <col min="30" max="30" width="6.28515625" customWidth="1"/>
+    <col min="31" max="31" width="7" customWidth="1"/>
+    <col min="32" max="32" width="6.5703125" customWidth="1"/>
+    <col min="33" max="33" width="7.85546875" customWidth="1"/>
     <col min="34" max="39" width="6.140625" customWidth="1"/>
     <col min="40" max="40" width="6.5703125" customWidth="1"/>
     <col min="41" max="41" width="6.28515625" customWidth="1"/>
@@ -5467,180 +5476,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77"/>
+      <c r="AL1" s="77"/>
+      <c r="AM1" s="77"/>
+      <c r="AN1" s="77"/>
+      <c r="AO1" s="77"/>
+      <c r="AP1" s="77"/>
+      <c r="AQ1" s="77"/>
+      <c r="AR1" s="77"/>
     </row>
     <row r="2" spans="1:44" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
     </row>
     <row r="3" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
-      <c r="B3" s="59">
+      <c r="B3" s="74">
         <v>2023</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="59">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="74">
         <v>2024</v>
       </c>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="59"/>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="59"/>
-      <c r="AO3" s="59"/>
-      <c r="AP3" s="59"/>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="59"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="74"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="74"/>
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="74"/>
+      <c r="AC3" s="74"/>
+      <c r="AD3" s="74"/>
+      <c r="AE3" s="74"/>
+      <c r="AF3" s="74"/>
+      <c r="AG3" s="74"/>
+      <c r="AH3" s="74"/>
+      <c r="AI3" s="74"/>
+      <c r="AJ3" s="74"/>
+      <c r="AK3" s="74"/>
+      <c r="AL3" s="74"/>
+      <c r="AM3" s="74"/>
+      <c r="AN3" s="74"/>
+      <c r="AO3" s="74"/>
+      <c r="AP3" s="74"/>
+      <c r="AQ3" s="74"/>
+      <c r="AR3" s="74"/>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="57" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="66" t="s">
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="67"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="67"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="67"/>
-      <c r="Z4" s="67"/>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="68"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="65" t="s">
+      <c r="U4" s="82"/>
+      <c r="V4" s="82"/>
+      <c r="W4" s="82"/>
+      <c r="X4" s="82"/>
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="82"/>
+      <c r="AA4" s="82"/>
+      <c r="AB4" s="83"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="63" t="s">
+      <c r="AE4" s="80"/>
+      <c r="AF4" s="80"/>
+      <c r="AG4" s="80"/>
+      <c r="AH4" s="80"/>
+      <c r="AI4" s="80"/>
+      <c r="AJ4" s="80"/>
+      <c r="AK4" s="80"/>
+      <c r="AL4" s="80"/>
+      <c r="AM4" s="80"/>
+      <c r="AN4" s="80"/>
+      <c r="AO4" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="AP4" s="64"/>
-      <c r="AQ4" s="64"/>
-      <c r="AR4" s="64"/>
+      <c r="AP4" s="79"/>
+      <c r="AQ4" s="79"/>
+      <c r="AR4" s="79"/>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
@@ -5700,41 +5709,41 @@
       <c r="T5" s="35">
         <v>2</v>
       </c>
-      <c r="U5" s="74">
+      <c r="U5" s="50">
         <v>5</v>
       </c>
-      <c r="V5" s="75">
+      <c r="V5" s="51">
         <v>8</v>
       </c>
-      <c r="W5" s="73">
+      <c r="W5" s="49">
         <v>9</v>
       </c>
-      <c r="X5" s="72">
+      <c r="X5" s="48">
         <v>15</v>
       </c>
-      <c r="Y5" s="72">
+      <c r="Y5" s="48">
         <v>16</v>
       </c>
-      <c r="Z5" s="72">
+      <c r="Z5" s="48">
         <v>17</v>
       </c>
-      <c r="AA5" s="83">
+      <c r="AA5" s="68">
         <v>24</v>
       </c>
-      <c r="AB5" s="84"/>
-      <c r="AC5" s="85">
+      <c r="AB5" s="69"/>
+      <c r="AC5" s="58">
         <v>31</v>
       </c>
-      <c r="AD5" s="82">
+      <c r="AD5" s="57">
         <v>2</v>
       </c>
-      <c r="AE5" s="82">
+      <c r="AE5" s="57">
         <v>3</v>
       </c>
-      <c r="AF5" s="82">
+      <c r="AF5" s="57">
         <v>4</v>
       </c>
-      <c r="AG5" s="40">
+      <c r="AG5" s="86">
         <v>5</v>
       </c>
       <c r="AH5" s="31">
@@ -5772,58 +5781,58 @@
       </c>
     </row>
     <row r="6" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="43">
+      <c r="B6" s="42">
         <v>-19</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="42">
         <v>-18</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="42">
         <v>-18</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="42">
         <v>-17</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="42">
         <v>-17</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="40">
         <v>-16</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6" s="40">
         <v>-16</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="40">
         <v>-15</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J6" s="40">
         <v>-15</v>
       </c>
-      <c r="K6" s="41">
+      <c r="K6" s="40">
         <v>-15</v>
       </c>
-      <c r="L6" s="42">
+      <c r="L6" s="41">
         <v>-14</v>
       </c>
-      <c r="M6" s="42">
+      <c r="M6" s="41">
         <v>-14</v>
       </c>
-      <c r="N6" s="42">
+      <c r="N6" s="41">
         <v>-14</v>
       </c>
-      <c r="O6" s="42">
+      <c r="O6" s="41">
         <v>-13</v>
       </c>
-      <c r="P6" s="42">
+      <c r="P6" s="41">
         <v>-13</v>
       </c>
-      <c r="Q6" s="42">
+      <c r="Q6" s="41">
         <v>-13</v>
       </c>
-      <c r="R6" s="42">
+      <c r="R6" s="41">
         <v>-12</v>
       </c>
-      <c r="S6" s="42">
+      <c r="S6" s="41">
         <v>-12</v>
       </c>
       <c r="T6" s="16">
@@ -5844,14 +5853,14 @@
       <c r="Y6" s="12">
         <v>-9</v>
       </c>
-      <c r="Z6" s="80">
+      <c r="Z6" s="56">
         <v>-9</v>
       </c>
-      <c r="AA6" s="81">
+      <c r="AA6" s="70">
         <v>-9</v>
       </c>
-      <c r="AB6" s="81"/>
-      <c r="AC6" s="76">
+      <c r="AB6" s="70"/>
+      <c r="AC6" s="52">
         <v>-8</v>
       </c>
       <c r="AD6" s="29">
@@ -5863,7 +5872,7 @@
       <c r="AF6" s="29">
         <v>-7</v>
       </c>
-      <c r="AG6" s="71">
+      <c r="AG6" s="47">
         <v>-7</v>
       </c>
       <c r="AH6" s="29">
@@ -5923,31 +5932,31 @@
       <c r="Q7" s="36"/>
       <c r="R7" s="36"/>
       <c r="S7" s="36"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="77"/>
-      <c r="AA7" s="78"/>
-      <c r="AB7" s="79"/>
-      <c r="AC7" s="44"/>
-      <c r="AD7" s="45"/>
-      <c r="AE7" s="45"/>
-      <c r="AF7" s="45"/>
-      <c r="AG7" s="45"/>
-      <c r="AH7" s="45"/>
-      <c r="AI7" s="45"/>
-      <c r="AJ7" s="45"/>
-      <c r="AK7" s="45"/>
-      <c r="AL7" s="45"/>
-      <c r="AM7" s="45"/>
-      <c r="AN7" s="45"/>
-      <c r="AO7" s="46"/>
-      <c r="AP7" s="46"/>
-      <c r="AQ7" s="46"/>
-      <c r="AR7" s="46"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="54"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="44"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="44"/>
+      <c r="AH7" s="44"/>
+      <c r="AI7" s="44"/>
+      <c r="AJ7" s="44"/>
+      <c r="AK7" s="44"/>
+      <c r="AL7" s="44"/>
+      <c r="AM7" s="44"/>
+      <c r="AN7" s="44"/>
+      <c r="AO7" s="45"/>
+      <c r="AP7" s="45"/>
+      <c r="AQ7" s="45"/>
+      <c r="AR7" s="45"/>
     </row>
     <row r="8" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="38" t="s">
@@ -5972,31 +5981,31 @@
       <c r="Q8" s="36"/>
       <c r="R8" s="36"/>
       <c r="S8" s="36"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="77"/>
-      <c r="AA8" s="78"/>
-      <c r="AB8" s="79"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="45"/>
-      <c r="AH8" s="45"/>
-      <c r="AI8" s="45"/>
-      <c r="AJ8" s="45"/>
-      <c r="AK8" s="45"/>
-      <c r="AL8" s="45"/>
-      <c r="AM8" s="45"/>
-      <c r="AN8" s="45"/>
-      <c r="AO8" s="46"/>
-      <c r="AP8" s="46"/>
-      <c r="AQ8" s="46"/>
-      <c r="AR8" s="46"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="43"/>
+      <c r="AD8" s="44"/>
+      <c r="AE8" s="44"/>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="44"/>
+      <c r="AI8" s="44"/>
+      <c r="AJ8" s="44"/>
+      <c r="AK8" s="44"/>
+      <c r="AL8" s="44"/>
+      <c r="AM8" s="44"/>
+      <c r="AN8" s="44"/>
+      <c r="AO8" s="45"/>
+      <c r="AP8" s="45"/>
+      <c r="AQ8" s="45"/>
+      <c r="AR8" s="45"/>
     </row>
     <row r="9" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="38"/>
@@ -6021,31 +6030,31 @@
       <c r="Q9" s="36"/>
       <c r="R9" s="36"/>
       <c r="S9" s="36"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="44"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="44"/>
-      <c r="Z9" s="77"/>
-      <c r="AA9" s="78"/>
-      <c r="AB9" s="79"/>
-      <c r="AC9" s="44"/>
-      <c r="AD9" s="45"/>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="45"/>
-      <c r="AH9" s="45"/>
-      <c r="AI9" s="45"/>
-      <c r="AJ9" s="45"/>
-      <c r="AK9" s="45"/>
-      <c r="AL9" s="45"/>
-      <c r="AM9" s="45"/>
-      <c r="AN9" s="45"/>
-      <c r="AO9" s="46"/>
-      <c r="AP9" s="46"/>
-      <c r="AQ9" s="46"/>
-      <c r="AR9" s="46"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="54"/>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="44"/>
+      <c r="AE9" s="44"/>
+      <c r="AF9" s="44"/>
+      <c r="AG9" s="44"/>
+      <c r="AH9" s="44"/>
+      <c r="AI9" s="44"/>
+      <c r="AJ9" s="44"/>
+      <c r="AK9" s="44"/>
+      <c r="AL9" s="44"/>
+      <c r="AM9" s="44"/>
+      <c r="AN9" s="44"/>
+      <c r="AO9" s="45"/>
+      <c r="AP9" s="45"/>
+      <c r="AQ9" s="45"/>
+      <c r="AR9" s="45"/>
     </row>
     <row r="10" spans="1:44" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="38"/>
@@ -6070,31 +6079,31 @@
       <c r="Q10" s="36"/>
       <c r="R10" s="36"/>
       <c r="S10" s="36"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44"/>
-      <c r="V10" s="44"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="44"/>
-      <c r="Z10" s="77"/>
-      <c r="AA10" s="78"/>
-      <c r="AB10" s="79"/>
-      <c r="AC10" s="44"/>
-      <c r="AD10" s="45"/>
-      <c r="AE10" s="45"/>
-      <c r="AF10" s="45"/>
-      <c r="AG10" s="45"/>
-      <c r="AH10" s="45"/>
-      <c r="AI10" s="45"/>
-      <c r="AJ10" s="45"/>
-      <c r="AK10" s="45"/>
-      <c r="AL10" s="45"/>
-      <c r="AM10" s="45"/>
-      <c r="AN10" s="45"/>
-      <c r="AO10" s="46"/>
-      <c r="AP10" s="46"/>
-      <c r="AQ10" s="46"/>
-      <c r="AR10" s="46"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="54"/>
+      <c r="AB10" s="55"/>
+      <c r="AC10" s="43"/>
+      <c r="AD10" s="44"/>
+      <c r="AE10" s="44"/>
+      <c r="AF10" s="44"/>
+      <c r="AG10" s="44"/>
+      <c r="AH10" s="44"/>
+      <c r="AI10" s="44"/>
+      <c r="AJ10" s="44"/>
+      <c r="AK10" s="44"/>
+      <c r="AL10" s="44"/>
+      <c r="AM10" s="44"/>
+      <c r="AN10" s="44"/>
+      <c r="AO10" s="45"/>
+      <c r="AP10" s="45"/>
+      <c r="AQ10" s="45"/>
+      <c r="AR10" s="45"/>
     </row>
     <row r="11" spans="1:44" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="38"/>
@@ -6119,31 +6128,31 @@
       <c r="Q11" s="36"/>
       <c r="R11" s="36"/>
       <c r="S11" s="36"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="44"/>
-      <c r="Z11" s="77"/>
-      <c r="AA11" s="78"/>
-      <c r="AB11" s="79"/>
-      <c r="AC11" s="44"/>
-      <c r="AD11" s="45"/>
-      <c r="AE11" s="45"/>
-      <c r="AF11" s="45"/>
-      <c r="AG11" s="45"/>
-      <c r="AH11" s="45"/>
-      <c r="AI11" s="45"/>
-      <c r="AJ11" s="45"/>
-      <c r="AK11" s="45"/>
-      <c r="AL11" s="45"/>
-      <c r="AM11" s="45"/>
-      <c r="AN11" s="45"/>
-      <c r="AO11" s="46"/>
-      <c r="AP11" s="46"/>
-      <c r="AQ11" s="46"/>
-      <c r="AR11" s="46"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="54"/>
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="43"/>
+      <c r="AD11" s="44"/>
+      <c r="AE11" s="44"/>
+      <c r="AF11" s="44"/>
+      <c r="AG11" s="44"/>
+      <c r="AH11" s="44"/>
+      <c r="AI11" s="44"/>
+      <c r="AJ11" s="44"/>
+      <c r="AK11" s="44"/>
+      <c r="AL11" s="44"/>
+      <c r="AM11" s="44"/>
+      <c r="AN11" s="44"/>
+      <c r="AO11" s="45"/>
+      <c r="AP11" s="45"/>
+      <c r="AQ11" s="45"/>
+      <c r="AR11" s="45"/>
     </row>
     <row r="12" spans="1:44" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="38"/>
@@ -6168,31 +6177,31 @@
       <c r="Q12" s="36"/>
       <c r="R12" s="36"/>
       <c r="S12" s="36"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="44"/>
-      <c r="X12" s="44"/>
-      <c r="Y12" s="44"/>
-      <c r="Z12" s="77"/>
-      <c r="AA12" s="78"/>
-      <c r="AB12" s="79"/>
-      <c r="AC12" s="44"/>
-      <c r="AD12" s="45"/>
-      <c r="AE12" s="45"/>
-      <c r="AF12" s="45"/>
-      <c r="AG12" s="45"/>
-      <c r="AH12" s="45"/>
-      <c r="AI12" s="45"/>
-      <c r="AJ12" s="45"/>
-      <c r="AK12" s="45"/>
-      <c r="AL12" s="45"/>
-      <c r="AM12" s="45"/>
-      <c r="AN12" s="45"/>
-      <c r="AO12" s="46"/>
-      <c r="AP12" s="46"/>
-      <c r="AQ12" s="46"/>
-      <c r="AR12" s="46"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="54"/>
+      <c r="AB12" s="55"/>
+      <c r="AC12" s="43"/>
+      <c r="AD12" s="44"/>
+      <c r="AE12" s="44"/>
+      <c r="AF12" s="44"/>
+      <c r="AG12" s="44"/>
+      <c r="AH12" s="44"/>
+      <c r="AI12" s="44"/>
+      <c r="AJ12" s="44"/>
+      <c r="AK12" s="44"/>
+      <c r="AL12" s="44"/>
+      <c r="AM12" s="44"/>
+      <c r="AN12" s="44"/>
+      <c r="AO12" s="45"/>
+      <c r="AP12" s="45"/>
+      <c r="AQ12" s="45"/>
+      <c r="AR12" s="45"/>
     </row>
     <row r="13" spans="1:44" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="38"/>
@@ -6217,31 +6226,31 @@
       <c r="Q13" s="36"/>
       <c r="R13" s="36"/>
       <c r="S13" s="36"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="44"/>
-      <c r="Z13" s="77"/>
-      <c r="AA13" s="78"/>
-      <c r="AB13" s="79"/>
-      <c r="AC13" s="44"/>
-      <c r="AD13" s="45"/>
-      <c r="AE13" s="45"/>
-      <c r="AF13" s="45"/>
-      <c r="AG13" s="45"/>
-      <c r="AH13" s="45"/>
-      <c r="AI13" s="45"/>
-      <c r="AJ13" s="45"/>
-      <c r="AK13" s="45"/>
-      <c r="AL13" s="45"/>
-      <c r="AM13" s="45"/>
-      <c r="AN13" s="45"/>
-      <c r="AO13" s="46"/>
-      <c r="AP13" s="46"/>
-      <c r="AQ13" s="46"/>
-      <c r="AR13" s="46"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="54"/>
+      <c r="AB13" s="55"/>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="44"/>
+      <c r="AE13" s="44"/>
+      <c r="AF13" s="44"/>
+      <c r="AG13" s="44"/>
+      <c r="AH13" s="44"/>
+      <c r="AI13" s="44"/>
+      <c r="AJ13" s="44"/>
+      <c r="AK13" s="44"/>
+      <c r="AL13" s="44"/>
+      <c r="AM13" s="44"/>
+      <c r="AN13" s="44"/>
+      <c r="AO13" s="45"/>
+      <c r="AP13" s="45"/>
+      <c r="AQ13" s="45"/>
+      <c r="AR13" s="45"/>
     </row>
     <row r="14" spans="1:44" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="38"/>
@@ -6266,31 +6275,31 @@
       <c r="Q14" s="36"/>
       <c r="R14" s="36"/>
       <c r="S14" s="36"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="44"/>
-      <c r="V14" s="44"/>
-      <c r="W14" s="44"/>
-      <c r="X14" s="44"/>
-      <c r="Y14" s="44"/>
-      <c r="Z14" s="77"/>
-      <c r="AA14" s="78"/>
-      <c r="AB14" s="79"/>
-      <c r="AC14" s="44"/>
-      <c r="AD14" s="45"/>
-      <c r="AE14" s="45"/>
-      <c r="AF14" s="45"/>
-      <c r="AG14" s="45"/>
-      <c r="AH14" s="45"/>
-      <c r="AI14" s="45"/>
-      <c r="AJ14" s="45"/>
-      <c r="AK14" s="45"/>
-      <c r="AL14" s="45"/>
-      <c r="AM14" s="45"/>
-      <c r="AN14" s="45"/>
-      <c r="AO14" s="46"/>
-      <c r="AP14" s="46"/>
-      <c r="AQ14" s="46"/>
-      <c r="AR14" s="46"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="54"/>
+      <c r="AB14" s="55"/>
+      <c r="AC14" s="43"/>
+      <c r="AD14" s="44"/>
+      <c r="AE14" s="44"/>
+      <c r="AF14" s="44"/>
+      <c r="AG14" s="44"/>
+      <c r="AH14" s="44"/>
+      <c r="AI14" s="44"/>
+      <c r="AJ14" s="44"/>
+      <c r="AK14" s="44"/>
+      <c r="AL14" s="44"/>
+      <c r="AM14" s="44"/>
+      <c r="AN14" s="44"/>
+      <c r="AO14" s="45"/>
+      <c r="AP14" s="45"/>
+      <c r="AQ14" s="45"/>
+      <c r="AR14" s="45"/>
     </row>
     <row r="15" spans="1:44" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="38"/>
@@ -6315,31 +6324,31 @@
       <c r="Q15" s="36"/>
       <c r="R15" s="36"/>
       <c r="S15" s="36"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="44"/>
-      <c r="Z15" s="77"/>
-      <c r="AA15" s="78"/>
-      <c r="AB15" s="79"/>
-      <c r="AC15" s="44"/>
-      <c r="AD15" s="45"/>
-      <c r="AE15" s="45"/>
-      <c r="AF15" s="45"/>
-      <c r="AG15" s="45"/>
-      <c r="AH15" s="45"/>
-      <c r="AI15" s="45"/>
-      <c r="AJ15" s="45"/>
-      <c r="AK15" s="45"/>
-      <c r="AL15" s="45"/>
-      <c r="AM15" s="45"/>
-      <c r="AN15" s="45"/>
-      <c r="AO15" s="46"/>
-      <c r="AP15" s="46"/>
-      <c r="AQ15" s="46"/>
-      <c r="AR15" s="46"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="54"/>
+      <c r="AB15" s="55"/>
+      <c r="AC15" s="43"/>
+      <c r="AD15" s="44"/>
+      <c r="AE15" s="44"/>
+      <c r="AF15" s="44"/>
+      <c r="AG15" s="44"/>
+      <c r="AH15" s="44"/>
+      <c r="AI15" s="44"/>
+      <c r="AJ15" s="44"/>
+      <c r="AK15" s="44"/>
+      <c r="AL15" s="44"/>
+      <c r="AM15" s="44"/>
+      <c r="AN15" s="44"/>
+      <c r="AO15" s="45"/>
+      <c r="AP15" s="45"/>
+      <c r="AQ15" s="45"/>
+      <c r="AR15" s="45"/>
     </row>
     <row r="16" spans="1:44" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="38"/>
@@ -6364,31 +6373,31 @@
       <c r="Q16" s="36"/>
       <c r="R16" s="36"/>
       <c r="S16" s="36"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="44"/>
-      <c r="Z16" s="77"/>
-      <c r="AA16" s="78"/>
-      <c r="AB16" s="79"/>
-      <c r="AC16" s="44"/>
-      <c r="AD16" s="45"/>
-      <c r="AE16" s="45"/>
-      <c r="AF16" s="45"/>
-      <c r="AG16" s="45"/>
-      <c r="AH16" s="45"/>
-      <c r="AI16" s="45"/>
-      <c r="AJ16" s="45"/>
-      <c r="AK16" s="45"/>
-      <c r="AL16" s="45"/>
-      <c r="AM16" s="45"/>
-      <c r="AN16" s="45"/>
-      <c r="AO16" s="46"/>
-      <c r="AP16" s="46"/>
-      <c r="AQ16" s="46"/>
-      <c r="AR16" s="46"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="54"/>
+      <c r="AB16" s="55"/>
+      <c r="AC16" s="43"/>
+      <c r="AD16" s="44"/>
+      <c r="AE16" s="44"/>
+      <c r="AF16" s="44"/>
+      <c r="AG16" s="44"/>
+      <c r="AH16" s="44"/>
+      <c r="AI16" s="44"/>
+      <c r="AJ16" s="44"/>
+      <c r="AK16" s="44"/>
+      <c r="AL16" s="44"/>
+      <c r="AM16" s="44"/>
+      <c r="AN16" s="44"/>
+      <c r="AO16" s="45"/>
+      <c r="AP16" s="45"/>
+      <c r="AQ16" s="45"/>
+      <c r="AR16" s="45"/>
     </row>
     <row r="17" spans="2:44" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="38"/>
@@ -6411,31 +6420,31 @@
       <c r="Q17" s="36"/>
       <c r="R17" s="36"/>
       <c r="S17" s="36"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="44"/>
-      <c r="Z17" s="77"/>
-      <c r="AA17" s="78"/>
-      <c r="AB17" s="79"/>
-      <c r="AC17" s="44"/>
-      <c r="AD17" s="45"/>
-      <c r="AE17" s="45"/>
-      <c r="AF17" s="45"/>
-      <c r="AG17" s="45"/>
-      <c r="AH17" s="45"/>
-      <c r="AI17" s="45"/>
-      <c r="AJ17" s="45"/>
-      <c r="AK17" s="45"/>
-      <c r="AL17" s="45"/>
-      <c r="AM17" s="45"/>
-      <c r="AN17" s="45"/>
-      <c r="AO17" s="46"/>
-      <c r="AP17" s="46"/>
-      <c r="AQ17" s="46"/>
-      <c r="AR17" s="46"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="54"/>
+      <c r="AB17" s="55"/>
+      <c r="AC17" s="43"/>
+      <c r="AD17" s="44"/>
+      <c r="AE17" s="44"/>
+      <c r="AF17" s="44"/>
+      <c r="AG17" s="44"/>
+      <c r="AH17" s="44"/>
+      <c r="AI17" s="44"/>
+      <c r="AJ17" s="44"/>
+      <c r="AK17" s="44"/>
+      <c r="AL17" s="44"/>
+      <c r="AM17" s="44"/>
+      <c r="AN17" s="44"/>
+      <c r="AO17" s="45"/>
+      <c r="AP17" s="45"/>
+      <c r="AQ17" s="45"/>
+      <c r="AR17" s="45"/>
     </row>
     <row r="18" spans="2:44" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="38"/>
@@ -6458,31 +6467,31 @@
       <c r="Q18" s="36"/>
       <c r="R18" s="36"/>
       <c r="S18" s="36"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="44"/>
-      <c r="Z18" s="77"/>
-      <c r="AA18" s="78"/>
-      <c r="AB18" s="79"/>
-      <c r="AC18" s="44"/>
-      <c r="AD18" s="45"/>
-      <c r="AE18" s="45"/>
-      <c r="AF18" s="45"/>
-      <c r="AG18" s="45"/>
-      <c r="AH18" s="45"/>
-      <c r="AI18" s="45"/>
-      <c r="AJ18" s="45"/>
-      <c r="AK18" s="45"/>
-      <c r="AL18" s="45"/>
-      <c r="AM18" s="45"/>
-      <c r="AN18" s="45"/>
-      <c r="AO18" s="46"/>
-      <c r="AP18" s="46"/>
-      <c r="AQ18" s="46"/>
-      <c r="AR18" s="46"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="53"/>
+      <c r="AA18" s="54"/>
+      <c r="AB18" s="55"/>
+      <c r="AC18" s="43"/>
+      <c r="AD18" s="44"/>
+      <c r="AE18" s="44"/>
+      <c r="AF18" s="44"/>
+      <c r="AG18" s="44"/>
+      <c r="AH18" s="44"/>
+      <c r="AI18" s="44"/>
+      <c r="AJ18" s="44"/>
+      <c r="AK18" s="44"/>
+      <c r="AL18" s="44"/>
+      <c r="AM18" s="44"/>
+      <c r="AN18" s="44"/>
+      <c r="AO18" s="45"/>
+      <c r="AP18" s="45"/>
+      <c r="AQ18" s="45"/>
+      <c r="AR18" s="45"/>
     </row>
     <row r="19" spans="2:44" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="38"/>
@@ -6507,31 +6516,31 @@
       <c r="Q19" s="36"/>
       <c r="R19" s="36"/>
       <c r="S19" s="36"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="44"/>
-      <c r="Z19" s="77"/>
-      <c r="AA19" s="78"/>
-      <c r="AB19" s="79"/>
-      <c r="AC19" s="44"/>
-      <c r="AD19" s="45"/>
-      <c r="AE19" s="45"/>
-      <c r="AF19" s="45"/>
-      <c r="AG19" s="45"/>
-      <c r="AH19" s="45"/>
-      <c r="AI19" s="45"/>
-      <c r="AJ19" s="45"/>
-      <c r="AK19" s="45"/>
-      <c r="AL19" s="45"/>
-      <c r="AM19" s="45"/>
-      <c r="AN19" s="45"/>
-      <c r="AO19" s="46"/>
-      <c r="AP19" s="46"/>
-      <c r="AQ19" s="46"/>
-      <c r="AR19" s="46"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="53"/>
+      <c r="AA19" s="54"/>
+      <c r="AB19" s="55"/>
+      <c r="AC19" s="43"/>
+      <c r="AD19" s="44"/>
+      <c r="AE19" s="44"/>
+      <c r="AF19" s="44"/>
+      <c r="AG19" s="44"/>
+      <c r="AH19" s="44"/>
+      <c r="AI19" s="44"/>
+      <c r="AJ19" s="44"/>
+      <c r="AK19" s="44"/>
+      <c r="AL19" s="44"/>
+      <c r="AM19" s="44"/>
+      <c r="AN19" s="44"/>
+      <c r="AO19" s="45"/>
+      <c r="AP19" s="45"/>
+      <c r="AQ19" s="45"/>
+      <c r="AR19" s="45"/>
     </row>
     <row r="20" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="38"/>
@@ -6554,31 +6563,31 @@
       <c r="Q20" s="36"/>
       <c r="R20" s="36"/>
       <c r="S20" s="36"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="77"/>
-      <c r="AA20" s="78"/>
-      <c r="AB20" s="79"/>
-      <c r="AC20" s="44"/>
-      <c r="AD20" s="45"/>
-      <c r="AE20" s="45"/>
-      <c r="AF20" s="45"/>
-      <c r="AG20" s="45"/>
-      <c r="AH20" s="45"/>
-      <c r="AI20" s="45"/>
-      <c r="AJ20" s="45"/>
-      <c r="AK20" s="45"/>
-      <c r="AL20" s="45"/>
-      <c r="AM20" s="45"/>
-      <c r="AN20" s="45"/>
-      <c r="AO20" s="46"/>
-      <c r="AP20" s="46"/>
-      <c r="AQ20" s="46"/>
-      <c r="AR20" s="46"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="54"/>
+      <c r="AB20" s="55"/>
+      <c r="AC20" s="43"/>
+      <c r="AD20" s="44"/>
+      <c r="AE20" s="44"/>
+      <c r="AF20" s="44"/>
+      <c r="AG20" s="44"/>
+      <c r="AH20" s="44"/>
+      <c r="AI20" s="44"/>
+      <c r="AJ20" s="44"/>
+      <c r="AK20" s="44"/>
+      <c r="AL20" s="44"/>
+      <c r="AM20" s="44"/>
+      <c r="AN20" s="44"/>
+      <c r="AO20" s="45"/>
+      <c r="AP20" s="45"/>
+      <c r="AQ20" s="45"/>
+      <c r="AR20" s="45"/>
     </row>
     <row r="21" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="38"/>
@@ -6601,31 +6610,31 @@
       <c r="Q21" s="36"/>
       <c r="R21" s="36"/>
       <c r="S21" s="36"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="44"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="44"/>
-      <c r="Z21" s="77"/>
-      <c r="AA21" s="78"/>
-      <c r="AB21" s="79"/>
-      <c r="AC21" s="44"/>
-      <c r="AD21" s="45"/>
-      <c r="AE21" s="45"/>
-      <c r="AF21" s="45"/>
-      <c r="AG21" s="45"/>
-      <c r="AH21" s="45"/>
-      <c r="AI21" s="45"/>
-      <c r="AJ21" s="45"/>
-      <c r="AK21" s="45"/>
-      <c r="AL21" s="45"/>
-      <c r="AM21" s="45"/>
-      <c r="AN21" s="45"/>
-      <c r="AO21" s="46"/>
-      <c r="AP21" s="46"/>
-      <c r="AQ21" s="46"/>
-      <c r="AR21" s="46"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="54"/>
+      <c r="AB21" s="55"/>
+      <c r="AC21" s="43"/>
+      <c r="AD21" s="44"/>
+      <c r="AE21" s="44"/>
+      <c r="AF21" s="44"/>
+      <c r="AG21" s="44"/>
+      <c r="AH21" s="44"/>
+      <c r="AI21" s="44"/>
+      <c r="AJ21" s="44"/>
+      <c r="AK21" s="44"/>
+      <c r="AL21" s="44"/>
+      <c r="AM21" s="44"/>
+      <c r="AN21" s="44"/>
+      <c r="AO21" s="45"/>
+      <c r="AP21" s="45"/>
+      <c r="AQ21" s="45"/>
+      <c r="AR21" s="45"/>
     </row>
     <row r="22" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="38"/>
@@ -6648,31 +6657,31 @@
       <c r="Q22" s="36"/>
       <c r="R22" s="36"/>
       <c r="S22" s="36"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="44"/>
-      <c r="X22" s="44"/>
-      <c r="Y22" s="44"/>
-      <c r="Z22" s="77"/>
-      <c r="AA22" s="78"/>
-      <c r="AB22" s="79"/>
-      <c r="AC22" s="44"/>
-      <c r="AD22" s="45"/>
-      <c r="AE22" s="45"/>
-      <c r="AF22" s="45"/>
-      <c r="AG22" s="45"/>
-      <c r="AH22" s="45"/>
-      <c r="AI22" s="45"/>
-      <c r="AJ22" s="45"/>
-      <c r="AK22" s="45"/>
-      <c r="AL22" s="45"/>
-      <c r="AM22" s="45"/>
-      <c r="AN22" s="45"/>
-      <c r="AO22" s="46"/>
-      <c r="AP22" s="46"/>
-      <c r="AQ22" s="46"/>
-      <c r="AR22" s="46"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="43"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="54"/>
+      <c r="AB22" s="55"/>
+      <c r="AC22" s="43"/>
+      <c r="AD22" s="44"/>
+      <c r="AE22" s="44"/>
+      <c r="AF22" s="44"/>
+      <c r="AG22" s="44"/>
+      <c r="AH22" s="44"/>
+      <c r="AI22" s="44"/>
+      <c r="AJ22" s="44"/>
+      <c r="AK22" s="44"/>
+      <c r="AL22" s="44"/>
+      <c r="AM22" s="44"/>
+      <c r="AN22" s="44"/>
+      <c r="AO22" s="45"/>
+      <c r="AP22" s="45"/>
+      <c r="AQ22" s="45"/>
+      <c r="AR22" s="45"/>
     </row>
     <row r="23" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="38"/>
@@ -6695,31 +6704,31 @@
       <c r="Q23" s="36"/>
       <c r="R23" s="36"/>
       <c r="S23" s="36"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="44"/>
-      <c r="Y23" s="44"/>
-      <c r="Z23" s="77"/>
-      <c r="AA23" s="78"/>
-      <c r="AB23" s="79"/>
-      <c r="AC23" s="44"/>
-      <c r="AD23" s="45"/>
-      <c r="AE23" s="45"/>
-      <c r="AF23" s="45"/>
-      <c r="AG23" s="45"/>
-      <c r="AH23" s="45"/>
-      <c r="AI23" s="45"/>
-      <c r="AJ23" s="45"/>
-      <c r="AK23" s="45"/>
-      <c r="AL23" s="45"/>
-      <c r="AM23" s="45"/>
-      <c r="AN23" s="45"/>
-      <c r="AO23" s="46"/>
-      <c r="AP23" s="46"/>
-      <c r="AQ23" s="46"/>
-      <c r="AR23" s="46"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="43"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="54"/>
+      <c r="AB23" s="55"/>
+      <c r="AC23" s="43"/>
+      <c r="AD23" s="44"/>
+      <c r="AE23" s="44"/>
+      <c r="AF23" s="44"/>
+      <c r="AG23" s="44"/>
+      <c r="AH23" s="44"/>
+      <c r="AI23" s="44"/>
+      <c r="AJ23" s="44"/>
+      <c r="AK23" s="44"/>
+      <c r="AL23" s="44"/>
+      <c r="AM23" s="44"/>
+      <c r="AN23" s="44"/>
+      <c r="AO23" s="45"/>
+      <c r="AP23" s="45"/>
+      <c r="AQ23" s="45"/>
+      <c r="AR23" s="45"/>
     </row>
     <row r="24" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="38"/>
@@ -6742,31 +6751,31 @@
       <c r="Q24" s="36"/>
       <c r="R24" s="36"/>
       <c r="S24" s="36"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="44"/>
-      <c r="V24" s="44"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="44"/>
-      <c r="Y24" s="44"/>
-      <c r="Z24" s="77"/>
-      <c r="AA24" s="78"/>
-      <c r="AB24" s="79"/>
-      <c r="AC24" s="44"/>
-      <c r="AD24" s="45"/>
-      <c r="AE24" s="45"/>
-      <c r="AF24" s="45"/>
-      <c r="AG24" s="45"/>
-      <c r="AH24" s="45"/>
-      <c r="AI24" s="45"/>
-      <c r="AJ24" s="45"/>
-      <c r="AK24" s="45"/>
-      <c r="AL24" s="45"/>
-      <c r="AM24" s="45"/>
-      <c r="AN24" s="45"/>
-      <c r="AO24" s="46"/>
-      <c r="AP24" s="46"/>
-      <c r="AQ24" s="46"/>
-      <c r="AR24" s="46"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="54"/>
+      <c r="AB24" s="55"/>
+      <c r="AC24" s="43"/>
+      <c r="AD24" s="44"/>
+      <c r="AE24" s="44"/>
+      <c r="AF24" s="44"/>
+      <c r="AG24" s="44"/>
+      <c r="AH24" s="44"/>
+      <c r="AI24" s="44"/>
+      <c r="AJ24" s="44"/>
+      <c r="AK24" s="44"/>
+      <c r="AL24" s="44"/>
+      <c r="AM24" s="44"/>
+      <c r="AN24" s="44"/>
+      <c r="AO24" s="45"/>
+      <c r="AP24" s="45"/>
+      <c r="AQ24" s="45"/>
+      <c r="AR24" s="45"/>
     </row>
     <row r="25" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="38"/>
@@ -6789,31 +6798,31 @@
       </c>
       <c r="R25" s="36"/>
       <c r="S25" s="36"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="44"/>
-      <c r="V25" s="44"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="44"/>
-      <c r="Z25" s="77"/>
-      <c r="AA25" s="78"/>
-      <c r="AB25" s="79"/>
-      <c r="AC25" s="44"/>
-      <c r="AD25" s="45"/>
-      <c r="AE25" s="45"/>
-      <c r="AF25" s="45"/>
-      <c r="AG25" s="45"/>
-      <c r="AH25" s="45"/>
-      <c r="AI25" s="45"/>
-      <c r="AJ25" s="45"/>
-      <c r="AK25" s="45"/>
-      <c r="AL25" s="45"/>
-      <c r="AM25" s="45"/>
-      <c r="AN25" s="45"/>
-      <c r="AO25" s="46"/>
-      <c r="AP25" s="46"/>
-      <c r="AQ25" s="46"/>
-      <c r="AR25" s="46"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="43"/>
+      <c r="Z25" s="53"/>
+      <c r="AA25" s="54"/>
+      <c r="AB25" s="55"/>
+      <c r="AC25" s="43"/>
+      <c r="AD25" s="44"/>
+      <c r="AE25" s="44"/>
+      <c r="AF25" s="44"/>
+      <c r="AG25" s="44"/>
+      <c r="AH25" s="44"/>
+      <c r="AI25" s="44"/>
+      <c r="AJ25" s="44"/>
+      <c r="AK25" s="44"/>
+      <c r="AL25" s="44"/>
+      <c r="AM25" s="44"/>
+      <c r="AN25" s="44"/>
+      <c r="AO25" s="45"/>
+      <c r="AP25" s="45"/>
+      <c r="AQ25" s="45"/>
+      <c r="AR25" s="45"/>
     </row>
     <row r="26" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="38"/>
@@ -6836,33 +6845,33 @@
       </c>
       <c r="R26" s="36"/>
       <c r="S26" s="36"/>
-      <c r="T26" s="44" t="s">
+      <c r="T26" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="U26" s="44"/>
-      <c r="V26" s="44"/>
-      <c r="W26" s="44"/>
-      <c r="X26" s="44"/>
-      <c r="Y26" s="44"/>
-      <c r="Z26" s="77"/>
-      <c r="AA26" s="78"/>
-      <c r="AB26" s="79"/>
-      <c r="AC26" s="44"/>
-      <c r="AD26" s="45"/>
-      <c r="AE26" s="45"/>
-      <c r="AF26" s="45"/>
-      <c r="AG26" s="45"/>
-      <c r="AH26" s="45"/>
-      <c r="AI26" s="45"/>
-      <c r="AJ26" s="45"/>
-      <c r="AK26" s="45"/>
-      <c r="AL26" s="45"/>
-      <c r="AM26" s="45"/>
-      <c r="AN26" s="45"/>
-      <c r="AO26" s="46"/>
-      <c r="AP26" s="46"/>
-      <c r="AQ26" s="46"/>
-      <c r="AR26" s="46"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="43"/>
+      <c r="X26" s="43"/>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="54"/>
+      <c r="AB26" s="55"/>
+      <c r="AC26" s="43"/>
+      <c r="AD26" s="44"/>
+      <c r="AE26" s="44"/>
+      <c r="AF26" s="44"/>
+      <c r="AG26" s="44"/>
+      <c r="AH26" s="44"/>
+      <c r="AI26" s="44"/>
+      <c r="AJ26" s="44"/>
+      <c r="AK26" s="44"/>
+      <c r="AL26" s="44"/>
+      <c r="AM26" s="44"/>
+      <c r="AN26" s="44"/>
+      <c r="AO26" s="45"/>
+      <c r="AP26" s="45"/>
+      <c r="AQ26" s="45"/>
+      <c r="AR26" s="45"/>
     </row>
     <row r="27" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="38"/>
@@ -6883,33 +6892,33 @@
       <c r="Q27" s="36"/>
       <c r="R27" s="36"/>
       <c r="S27" s="36"/>
-      <c r="T27" s="44" t="s">
+      <c r="T27" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="U27" s="44"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="44"/>
-      <c r="X27" s="44"/>
-      <c r="Y27" s="44"/>
-      <c r="Z27" s="77"/>
-      <c r="AA27" s="78"/>
-      <c r="AB27" s="79"/>
-      <c r="AC27" s="44"/>
-      <c r="AD27" s="45"/>
-      <c r="AE27" s="45"/>
-      <c r="AF27" s="45"/>
-      <c r="AG27" s="45"/>
-      <c r="AH27" s="45"/>
-      <c r="AI27" s="45"/>
-      <c r="AJ27" s="45"/>
-      <c r="AK27" s="45"/>
-      <c r="AL27" s="45"/>
-      <c r="AM27" s="45"/>
-      <c r="AN27" s="45"/>
-      <c r="AO27" s="46"/>
-      <c r="AP27" s="46"/>
-      <c r="AQ27" s="46"/>
-      <c r="AR27" s="46"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="54"/>
+      <c r="AB27" s="55"/>
+      <c r="AC27" s="43"/>
+      <c r="AD27" s="44"/>
+      <c r="AE27" s="44"/>
+      <c r="AF27" s="44"/>
+      <c r="AG27" s="44"/>
+      <c r="AH27" s="44"/>
+      <c r="AI27" s="44"/>
+      <c r="AJ27" s="44"/>
+      <c r="AK27" s="44"/>
+      <c r="AL27" s="44"/>
+      <c r="AM27" s="44"/>
+      <c r="AN27" s="44"/>
+      <c r="AO27" s="45"/>
+      <c r="AP27" s="45"/>
+      <c r="AQ27" s="45"/>
+      <c r="AR27" s="45"/>
     </row>
     <row r="28" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="38"/>
@@ -6930,33 +6939,33 @@
       <c r="Q28" s="36"/>
       <c r="R28" s="36"/>
       <c r="S28" s="36"/>
-      <c r="T28" s="44" t="s">
+      <c r="T28" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="U28" s="44"/>
-      <c r="V28" s="44"/>
-      <c r="W28" s="44"/>
-      <c r="X28" s="44"/>
-      <c r="Y28" s="44"/>
-      <c r="Z28" s="77"/>
-      <c r="AA28" s="78"/>
-      <c r="AB28" s="79"/>
-      <c r="AC28" s="44"/>
-      <c r="AD28" s="45"/>
-      <c r="AE28" s="45"/>
-      <c r="AF28" s="45"/>
-      <c r="AG28" s="45"/>
-      <c r="AH28" s="45"/>
-      <c r="AI28" s="45"/>
-      <c r="AJ28" s="45"/>
-      <c r="AK28" s="45"/>
-      <c r="AL28" s="45"/>
-      <c r="AM28" s="45"/>
-      <c r="AN28" s="45"/>
-      <c r="AO28" s="46"/>
-      <c r="AP28" s="46"/>
-      <c r="AQ28" s="46"/>
-      <c r="AR28" s="46"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="43"/>
+      <c r="W28" s="43"/>
+      <c r="X28" s="43"/>
+      <c r="Y28" s="43"/>
+      <c r="Z28" s="53"/>
+      <c r="AA28" s="54"/>
+      <c r="AB28" s="55"/>
+      <c r="AC28" s="43"/>
+      <c r="AD28" s="44"/>
+      <c r="AE28" s="44"/>
+      <c r="AF28" s="44"/>
+      <c r="AG28" s="44"/>
+      <c r="AH28" s="44"/>
+      <c r="AI28" s="44"/>
+      <c r="AJ28" s="44"/>
+      <c r="AK28" s="44"/>
+      <c r="AL28" s="44"/>
+      <c r="AM28" s="44"/>
+      <c r="AN28" s="44"/>
+      <c r="AO28" s="45"/>
+      <c r="AP28" s="45"/>
+      <c r="AQ28" s="45"/>
+      <c r="AR28" s="45"/>
     </row>
     <row r="29" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="38"/>
@@ -6977,33 +6986,33 @@
       <c r="Q29" s="36"/>
       <c r="R29" s="36"/>
       <c r="S29" s="36"/>
-      <c r="T29" s="44" t="s">
+      <c r="T29" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="U29" s="44"/>
-      <c r="V29" s="44"/>
-      <c r="W29" s="44"/>
-      <c r="X29" s="44"/>
-      <c r="Y29" s="44"/>
-      <c r="Z29" s="77"/>
-      <c r="AA29" s="78"/>
-      <c r="AB29" s="79"/>
-      <c r="AC29" s="44"/>
-      <c r="AD29" s="45"/>
-      <c r="AE29" s="45"/>
-      <c r="AF29" s="45"/>
-      <c r="AG29" s="45"/>
-      <c r="AH29" s="45"/>
-      <c r="AI29" s="45"/>
-      <c r="AJ29" s="45"/>
-      <c r="AK29" s="45"/>
-      <c r="AL29" s="45"/>
-      <c r="AM29" s="45"/>
-      <c r="AN29" s="45"/>
-      <c r="AO29" s="46"/>
-      <c r="AP29" s="46"/>
-      <c r="AQ29" s="46"/>
-      <c r="AR29" s="46"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="43"/>
+      <c r="X29" s="43"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="53"/>
+      <c r="AA29" s="54"/>
+      <c r="AB29" s="55"/>
+      <c r="AC29" s="43"/>
+      <c r="AD29" s="44"/>
+      <c r="AE29" s="44"/>
+      <c r="AF29" s="44"/>
+      <c r="AG29" s="44"/>
+      <c r="AH29" s="44"/>
+      <c r="AI29" s="44"/>
+      <c r="AJ29" s="44"/>
+      <c r="AK29" s="44"/>
+      <c r="AL29" s="44"/>
+      <c r="AM29" s="44"/>
+      <c r="AN29" s="44"/>
+      <c r="AO29" s="45"/>
+      <c r="AP29" s="45"/>
+      <c r="AQ29" s="45"/>
+      <c r="AR29" s="45"/>
     </row>
     <row r="30" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B30" s="38"/>
@@ -7024,33 +7033,33 @@
       <c r="Q30" s="36"/>
       <c r="R30" s="36"/>
       <c r="S30" s="36"/>
-      <c r="T30" s="44"/>
-      <c r="U30" s="44" t="s">
+      <c r="T30" s="43"/>
+      <c r="U30" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="V30" s="44"/>
-      <c r="W30" s="44"/>
-      <c r="X30" s="44"/>
-      <c r="Y30" s="44"/>
-      <c r="Z30" s="77"/>
-      <c r="AA30" s="78"/>
-      <c r="AB30" s="79"/>
-      <c r="AC30" s="44"/>
-      <c r="AD30" s="45"/>
-      <c r="AE30" s="45"/>
-      <c r="AF30" s="45"/>
-      <c r="AG30" s="45"/>
-      <c r="AH30" s="45"/>
-      <c r="AI30" s="45"/>
-      <c r="AJ30" s="45"/>
-      <c r="AK30" s="45"/>
-      <c r="AL30" s="45"/>
-      <c r="AM30" s="45"/>
-      <c r="AN30" s="45"/>
-      <c r="AO30" s="46"/>
-      <c r="AP30" s="46"/>
-      <c r="AQ30" s="46"/>
-      <c r="AR30" s="46"/>
+      <c r="V30" s="43"/>
+      <c r="W30" s="43"/>
+      <c r="X30" s="43"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="54"/>
+      <c r="AB30" s="55"/>
+      <c r="AC30" s="43"/>
+      <c r="AD30" s="44"/>
+      <c r="AE30" s="44"/>
+      <c r="AF30" s="44"/>
+      <c r="AG30" s="44"/>
+      <c r="AH30" s="44"/>
+      <c r="AI30" s="44"/>
+      <c r="AJ30" s="44"/>
+      <c r="AK30" s="44"/>
+      <c r="AL30" s="44"/>
+      <c r="AM30" s="44"/>
+      <c r="AN30" s="44"/>
+      <c r="AO30" s="45"/>
+      <c r="AP30" s="45"/>
+      <c r="AQ30" s="45"/>
+      <c r="AR30" s="45"/>
     </row>
     <row r="31" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B31" s="38"/>
@@ -7071,33 +7080,33 @@
       <c r="Q31" s="36"/>
       <c r="R31" s="36"/>
       <c r="S31" s="36"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="44" t="s">
+      <c r="T31" s="43"/>
+      <c r="U31" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="V31" s="44"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="44"/>
-      <c r="Z31" s="77"/>
-      <c r="AA31" s="78"/>
-      <c r="AB31" s="79"/>
-      <c r="AC31" s="44"/>
-      <c r="AD31" s="45"/>
-      <c r="AE31" s="45"/>
-      <c r="AF31" s="45"/>
-      <c r="AG31" s="45"/>
-      <c r="AH31" s="45"/>
-      <c r="AI31" s="45"/>
-      <c r="AJ31" s="45"/>
-      <c r="AK31" s="45"/>
-      <c r="AL31" s="45"/>
-      <c r="AM31" s="45"/>
-      <c r="AN31" s="45"/>
-      <c r="AO31" s="46"/>
-      <c r="AP31" s="46"/>
-      <c r="AQ31" s="46"/>
-      <c r="AR31" s="46"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="43"/>
+      <c r="Y31" s="43"/>
+      <c r="Z31" s="53"/>
+      <c r="AA31" s="54"/>
+      <c r="AB31" s="55"/>
+      <c r="AC31" s="43"/>
+      <c r="AD31" s="44"/>
+      <c r="AE31" s="44"/>
+      <c r="AF31" s="44"/>
+      <c r="AG31" s="44"/>
+      <c r="AH31" s="44"/>
+      <c r="AI31" s="44"/>
+      <c r="AJ31" s="44"/>
+      <c r="AK31" s="44"/>
+      <c r="AL31" s="44"/>
+      <c r="AM31" s="44"/>
+      <c r="AN31" s="44"/>
+      <c r="AO31" s="45"/>
+      <c r="AP31" s="45"/>
+      <c r="AQ31" s="45"/>
+      <c r="AR31" s="45"/>
     </row>
     <row r="32" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B32" s="38"/>
@@ -7118,33 +7127,33 @@
       <c r="Q32" s="36"/>
       <c r="R32" s="36"/>
       <c r="S32" s="36"/>
-      <c r="T32" s="44"/>
-      <c r="U32" s="44"/>
-      <c r="V32" s="44" t="s">
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="W32" s="44"/>
-      <c r="X32" s="44"/>
-      <c r="Y32" s="44"/>
-      <c r="Z32" s="77"/>
-      <c r="AA32" s="78"/>
-      <c r="AB32" s="79"/>
-      <c r="AC32" s="44"/>
-      <c r="AD32" s="45"/>
-      <c r="AE32" s="45"/>
-      <c r="AF32" s="45"/>
-      <c r="AG32" s="45"/>
-      <c r="AH32" s="45"/>
-      <c r="AI32" s="45"/>
-      <c r="AJ32" s="45"/>
-      <c r="AK32" s="45"/>
-      <c r="AL32" s="45"/>
-      <c r="AM32" s="45"/>
-      <c r="AN32" s="45"/>
-      <c r="AO32" s="46"/>
-      <c r="AP32" s="46"/>
-      <c r="AQ32" s="46"/>
-      <c r="AR32" s="46"/>
+      <c r="W32" s="43"/>
+      <c r="X32" s="43"/>
+      <c r="Y32" s="43"/>
+      <c r="Z32" s="53"/>
+      <c r="AA32" s="54"/>
+      <c r="AB32" s="55"/>
+      <c r="AC32" s="43"/>
+      <c r="AD32" s="44"/>
+      <c r="AE32" s="44"/>
+      <c r="AF32" s="44"/>
+      <c r="AG32" s="44"/>
+      <c r="AH32" s="44"/>
+      <c r="AI32" s="44"/>
+      <c r="AJ32" s="44"/>
+      <c r="AK32" s="44"/>
+      <c r="AL32" s="44"/>
+      <c r="AM32" s="44"/>
+      <c r="AN32" s="44"/>
+      <c r="AO32" s="45"/>
+      <c r="AP32" s="45"/>
+      <c r="AQ32" s="45"/>
+      <c r="AR32" s="45"/>
     </row>
     <row r="33" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B33" s="38"/>
@@ -7165,33 +7174,33 @@
       <c r="Q33" s="36"/>
       <c r="R33" s="36"/>
       <c r="S33" s="36"/>
-      <c r="T33" s="44"/>
-      <c r="U33" s="44"/>
-      <c r="V33" s="44" t="s">
+      <c r="T33" s="43"/>
+      <c r="U33" s="43"/>
+      <c r="V33" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="W33" s="44"/>
-      <c r="X33" s="44"/>
-      <c r="Y33" s="44"/>
-      <c r="Z33" s="77"/>
-      <c r="AA33" s="78"/>
-      <c r="AB33" s="79"/>
-      <c r="AC33" s="44"/>
-      <c r="AD33" s="45"/>
-      <c r="AE33" s="45"/>
-      <c r="AF33" s="45"/>
-      <c r="AG33" s="45"/>
-      <c r="AH33" s="45"/>
-      <c r="AI33" s="45"/>
-      <c r="AJ33" s="45"/>
-      <c r="AK33" s="45"/>
-      <c r="AL33" s="45"/>
-      <c r="AM33" s="45"/>
-      <c r="AN33" s="45"/>
-      <c r="AO33" s="46"/>
-      <c r="AP33" s="46"/>
-      <c r="AQ33" s="46"/>
-      <c r="AR33" s="46"/>
+      <c r="W33" s="43"/>
+      <c r="X33" s="43"/>
+      <c r="Y33" s="43"/>
+      <c r="Z33" s="53"/>
+      <c r="AA33" s="54"/>
+      <c r="AB33" s="55"/>
+      <c r="AC33" s="43"/>
+      <c r="AD33" s="44"/>
+      <c r="AE33" s="44"/>
+      <c r="AF33" s="44"/>
+      <c r="AG33" s="44"/>
+      <c r="AH33" s="44"/>
+      <c r="AI33" s="44"/>
+      <c r="AJ33" s="44"/>
+      <c r="AK33" s="44"/>
+      <c r="AL33" s="44"/>
+      <c r="AM33" s="44"/>
+      <c r="AN33" s="44"/>
+      <c r="AO33" s="45"/>
+      <c r="AP33" s="45"/>
+      <c r="AQ33" s="45"/>
+      <c r="AR33" s="45"/>
     </row>
     <row r="34" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B34" s="38"/>
@@ -7212,33 +7221,33 @@
       <c r="Q34" s="36"/>
       <c r="R34" s="36"/>
       <c r="S34" s="36"/>
-      <c r="T34" s="44"/>
-      <c r="U34" s="44"/>
-      <c r="V34" s="44"/>
-      <c r="W34" s="44" t="s">
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="X34" s="44"/>
-      <c r="Y34" s="44"/>
-      <c r="Z34" s="77"/>
-      <c r="AA34" s="78"/>
-      <c r="AB34" s="79"/>
-      <c r="AC34" s="44"/>
-      <c r="AD34" s="45"/>
-      <c r="AE34" s="45"/>
-      <c r="AF34" s="45"/>
-      <c r="AG34" s="45"/>
-      <c r="AH34" s="45"/>
-      <c r="AI34" s="45"/>
-      <c r="AJ34" s="45"/>
-      <c r="AK34" s="45"/>
-      <c r="AL34" s="45"/>
-      <c r="AM34" s="45"/>
-      <c r="AN34" s="45"/>
-      <c r="AO34" s="46"/>
-      <c r="AP34" s="46"/>
-      <c r="AQ34" s="46"/>
-      <c r="AR34" s="46"/>
+      <c r="X34" s="43"/>
+      <c r="Y34" s="43"/>
+      <c r="Z34" s="53"/>
+      <c r="AA34" s="54"/>
+      <c r="AB34" s="55"/>
+      <c r="AC34" s="43"/>
+      <c r="AD34" s="44"/>
+      <c r="AE34" s="44"/>
+      <c r="AF34" s="44"/>
+      <c r="AG34" s="44"/>
+      <c r="AH34" s="44"/>
+      <c r="AI34" s="44"/>
+      <c r="AJ34" s="44"/>
+      <c r="AK34" s="44"/>
+      <c r="AL34" s="44"/>
+      <c r="AM34" s="44"/>
+      <c r="AN34" s="44"/>
+      <c r="AO34" s="45"/>
+      <c r="AP34" s="45"/>
+      <c r="AQ34" s="45"/>
+      <c r="AR34" s="45"/>
     </row>
     <row r="35" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="38"/>
@@ -7259,33 +7268,33 @@
       <c r="Q35" s="36"/>
       <c r="R35" s="36"/>
       <c r="S35" s="36"/>
-      <c r="T35" s="44"/>
-      <c r="U35" s="44"/>
-      <c r="V35" s="44"/>
-      <c r="W35" s="44" t="s">
+      <c r="T35" s="43"/>
+      <c r="U35" s="43"/>
+      <c r="V35" s="43"/>
+      <c r="W35" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="X35" s="44"/>
-      <c r="Y35" s="44"/>
-      <c r="Z35" s="77"/>
-      <c r="AA35" s="78"/>
-      <c r="AB35" s="79"/>
-      <c r="AC35" s="44"/>
-      <c r="AD35" s="45"/>
-      <c r="AE35" s="45"/>
-      <c r="AF35" s="45"/>
-      <c r="AG35" s="45"/>
-      <c r="AH35" s="45"/>
-      <c r="AI35" s="45"/>
-      <c r="AJ35" s="45"/>
-      <c r="AK35" s="45"/>
-      <c r="AL35" s="45"/>
-      <c r="AM35" s="45"/>
-      <c r="AN35" s="45"/>
-      <c r="AO35" s="46"/>
-      <c r="AP35" s="46"/>
-      <c r="AQ35" s="46"/>
-      <c r="AR35" s="46"/>
+      <c r="X35" s="43"/>
+      <c r="Y35" s="43"/>
+      <c r="Z35" s="53"/>
+      <c r="AA35" s="54"/>
+      <c r="AB35" s="55"/>
+      <c r="AC35" s="43"/>
+      <c r="AD35" s="44"/>
+      <c r="AE35" s="44"/>
+      <c r="AF35" s="44"/>
+      <c r="AG35" s="44"/>
+      <c r="AH35" s="44"/>
+      <c r="AI35" s="44"/>
+      <c r="AJ35" s="44"/>
+      <c r="AK35" s="44"/>
+      <c r="AL35" s="44"/>
+      <c r="AM35" s="44"/>
+      <c r="AN35" s="44"/>
+      <c r="AO35" s="45"/>
+      <c r="AP35" s="45"/>
+      <c r="AQ35" s="45"/>
+      <c r="AR35" s="45"/>
     </row>
     <row r="36" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="38"/>
@@ -7306,33 +7315,33 @@
       <c r="Q36" s="36"/>
       <c r="R36" s="36"/>
       <c r="S36" s="36"/>
-      <c r="T36" s="44"/>
-      <c r="U36" s="44"/>
-      <c r="V36" s="44"/>
-      <c r="W36" s="44" t="s">
+      <c r="T36" s="43"/>
+      <c r="U36" s="43"/>
+      <c r="V36" s="43"/>
+      <c r="W36" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="X36" s="44"/>
-      <c r="Y36" s="44"/>
-      <c r="Z36" s="77"/>
-      <c r="AA36" s="78"/>
-      <c r="AB36" s="79"/>
-      <c r="AC36" s="44"/>
-      <c r="AD36" s="45"/>
-      <c r="AE36" s="45"/>
-      <c r="AF36" s="45"/>
-      <c r="AG36" s="45"/>
-      <c r="AH36" s="45"/>
-      <c r="AI36" s="45"/>
-      <c r="AJ36" s="45"/>
-      <c r="AK36" s="45"/>
-      <c r="AL36" s="45"/>
-      <c r="AM36" s="45"/>
-      <c r="AN36" s="45"/>
-      <c r="AO36" s="46"/>
-      <c r="AP36" s="46"/>
-      <c r="AQ36" s="46"/>
-      <c r="AR36" s="46"/>
+      <c r="X36" s="43"/>
+      <c r="Y36" s="43"/>
+      <c r="Z36" s="53"/>
+      <c r="AA36" s="54"/>
+      <c r="AB36" s="55"/>
+      <c r="AC36" s="43"/>
+      <c r="AD36" s="44"/>
+      <c r="AE36" s="44"/>
+      <c r="AF36" s="44"/>
+      <c r="AG36" s="44"/>
+      <c r="AH36" s="44"/>
+      <c r="AI36" s="44"/>
+      <c r="AJ36" s="44"/>
+      <c r="AK36" s="44"/>
+      <c r="AL36" s="44"/>
+      <c r="AM36" s="44"/>
+      <c r="AN36" s="44"/>
+      <c r="AO36" s="45"/>
+      <c r="AP36" s="45"/>
+      <c r="AQ36" s="45"/>
+      <c r="AR36" s="45"/>
     </row>
     <row r="37" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="38"/>
@@ -7353,33 +7362,33 @@
       <c r="Q37" s="36"/>
       <c r="R37" s="36"/>
       <c r="S37" s="36"/>
-      <c r="T37" s="44"/>
-      <c r="U37" s="44"/>
-      <c r="V37" s="44"/>
-      <c r="W37" s="44"/>
-      <c r="X37" s="44" t="s">
+      <c r="T37" s="43"/>
+      <c r="U37" s="43"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="43"/>
+      <c r="X37" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="Y37" s="44"/>
-      <c r="Z37" s="77"/>
-      <c r="AA37" s="78"/>
-      <c r="AB37" s="79"/>
-      <c r="AC37" s="44"/>
-      <c r="AD37" s="45"/>
-      <c r="AE37" s="45"/>
-      <c r="AF37" s="45"/>
-      <c r="AG37" s="45"/>
-      <c r="AH37" s="45"/>
-      <c r="AI37" s="45"/>
-      <c r="AJ37" s="45"/>
-      <c r="AK37" s="45"/>
-      <c r="AL37" s="45"/>
-      <c r="AM37" s="45"/>
-      <c r="AN37" s="45"/>
-      <c r="AO37" s="46"/>
-      <c r="AP37" s="46"/>
-      <c r="AQ37" s="46"/>
-      <c r="AR37" s="46"/>
+      <c r="Y37" s="43"/>
+      <c r="Z37" s="53"/>
+      <c r="AA37" s="54"/>
+      <c r="AB37" s="55"/>
+      <c r="AC37" s="43"/>
+      <c r="AD37" s="44"/>
+      <c r="AE37" s="44"/>
+      <c r="AF37" s="44"/>
+      <c r="AG37" s="44"/>
+      <c r="AH37" s="44"/>
+      <c r="AI37" s="44"/>
+      <c r="AJ37" s="44"/>
+      <c r="AK37" s="44"/>
+      <c r="AL37" s="44"/>
+      <c r="AM37" s="44"/>
+      <c r="AN37" s="44"/>
+      <c r="AO37" s="45"/>
+      <c r="AP37" s="45"/>
+      <c r="AQ37" s="45"/>
+      <c r="AR37" s="45"/>
     </row>
     <row r="38" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="38"/>
@@ -7400,33 +7409,33 @@
       <c r="Q38" s="36"/>
       <c r="R38" s="36"/>
       <c r="S38" s="36"/>
-      <c r="T38" s="44"/>
-      <c r="U38" s="44"/>
-      <c r="V38" s="44"/>
-      <c r="W38" s="44"/>
-      <c r="X38" s="44" t="s">
+      <c r="T38" s="43"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="43"/>
+      <c r="W38" s="43"/>
+      <c r="X38" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="Y38" s="44"/>
-      <c r="Z38" s="77"/>
-      <c r="AA38" s="78"/>
-      <c r="AB38" s="79"/>
-      <c r="AC38" s="44"/>
-      <c r="AD38" s="45"/>
-      <c r="AE38" s="45"/>
-      <c r="AF38" s="45"/>
-      <c r="AG38" s="45"/>
-      <c r="AH38" s="45"/>
-      <c r="AI38" s="45"/>
-      <c r="AJ38" s="45"/>
-      <c r="AK38" s="45"/>
-      <c r="AL38" s="45"/>
-      <c r="AM38" s="45"/>
-      <c r="AN38" s="45"/>
-      <c r="AO38" s="46"/>
-      <c r="AP38" s="46"/>
-      <c r="AQ38" s="46"/>
-      <c r="AR38" s="46"/>
+      <c r="Y38" s="43"/>
+      <c r="Z38" s="53"/>
+      <c r="AA38" s="54"/>
+      <c r="AB38" s="55"/>
+      <c r="AC38" s="43"/>
+      <c r="AD38" s="44"/>
+      <c r="AE38" s="44"/>
+      <c r="AF38" s="44"/>
+      <c r="AG38" s="44"/>
+      <c r="AH38" s="44"/>
+      <c r="AI38" s="44"/>
+      <c r="AJ38" s="44"/>
+      <c r="AK38" s="44"/>
+      <c r="AL38" s="44"/>
+      <c r="AM38" s="44"/>
+      <c r="AN38" s="44"/>
+      <c r="AO38" s="45"/>
+      <c r="AP38" s="45"/>
+      <c r="AQ38" s="45"/>
+      <c r="AR38" s="45"/>
     </row>
     <row r="39" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="38"/>
@@ -7447,33 +7456,33 @@
       <c r="Q39" s="36"/>
       <c r="R39" s="36"/>
       <c r="S39" s="36"/>
-      <c r="T39" s="44"/>
-      <c r="U39" s="44"/>
-      <c r="V39" s="44"/>
-      <c r="W39" s="44"/>
-      <c r="X39" s="44" t="s">
+      <c r="T39" s="43"/>
+      <c r="U39" s="43"/>
+      <c r="V39" s="43"/>
+      <c r="W39" s="43"/>
+      <c r="X39" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="Y39" s="44"/>
-      <c r="Z39" s="77"/>
-      <c r="AA39" s="78"/>
-      <c r="AB39" s="79"/>
-      <c r="AC39" s="44"/>
-      <c r="AD39" s="45"/>
-      <c r="AE39" s="45"/>
-      <c r="AF39" s="45"/>
-      <c r="AG39" s="45"/>
-      <c r="AH39" s="45"/>
-      <c r="AI39" s="45"/>
-      <c r="AJ39" s="45"/>
-      <c r="AK39" s="45"/>
-      <c r="AL39" s="45"/>
-      <c r="AM39" s="45"/>
-      <c r="AN39" s="45"/>
-      <c r="AO39" s="46"/>
-      <c r="AP39" s="46"/>
-      <c r="AQ39" s="46"/>
-      <c r="AR39" s="46"/>
+      <c r="Y39" s="43"/>
+      <c r="Z39" s="53"/>
+      <c r="AA39" s="54"/>
+      <c r="AB39" s="55"/>
+      <c r="AC39" s="43"/>
+      <c r="AD39" s="44"/>
+      <c r="AE39" s="44"/>
+      <c r="AF39" s="44"/>
+      <c r="AG39" s="44"/>
+      <c r="AH39" s="44"/>
+      <c r="AI39" s="44"/>
+      <c r="AJ39" s="44"/>
+      <c r="AK39" s="44"/>
+      <c r="AL39" s="44"/>
+      <c r="AM39" s="44"/>
+      <c r="AN39" s="44"/>
+      <c r="AO39" s="45"/>
+      <c r="AP39" s="45"/>
+      <c r="AQ39" s="45"/>
+      <c r="AR39" s="45"/>
     </row>
     <row r="40" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="38"/>
@@ -7494,33 +7503,33 @@
       <c r="Q40" s="36"/>
       <c r="R40" s="36"/>
       <c r="S40" s="36"/>
-      <c r="T40" s="44"/>
-      <c r="U40" s="44"/>
-      <c r="V40" s="44"/>
-      <c r="W40" s="44"/>
-      <c r="X40" s="44" t="s">
+      <c r="T40" s="43"/>
+      <c r="U40" s="43"/>
+      <c r="V40" s="43"/>
+      <c r="W40" s="43"/>
+      <c r="X40" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="Y40" s="44"/>
-      <c r="Z40" s="77"/>
-      <c r="AA40" s="78"/>
-      <c r="AB40" s="79"/>
-      <c r="AC40" s="44"/>
-      <c r="AD40" s="45"/>
-      <c r="AE40" s="45"/>
-      <c r="AF40" s="45"/>
-      <c r="AG40" s="45"/>
-      <c r="AH40" s="45"/>
-      <c r="AI40" s="45"/>
-      <c r="AJ40" s="45"/>
-      <c r="AK40" s="45"/>
-      <c r="AL40" s="45"/>
-      <c r="AM40" s="45"/>
-      <c r="AN40" s="45"/>
-      <c r="AO40" s="46"/>
-      <c r="AP40" s="46"/>
-      <c r="AQ40" s="46"/>
-      <c r="AR40" s="46"/>
+      <c r="Y40" s="43"/>
+      <c r="Z40" s="53"/>
+      <c r="AA40" s="54"/>
+      <c r="AB40" s="55"/>
+      <c r="AC40" s="43"/>
+      <c r="AD40" s="44"/>
+      <c r="AE40" s="44"/>
+      <c r="AF40" s="44"/>
+      <c r="AG40" s="44"/>
+      <c r="AH40" s="44"/>
+      <c r="AI40" s="44"/>
+      <c r="AJ40" s="44"/>
+      <c r="AK40" s="44"/>
+      <c r="AL40" s="44"/>
+      <c r="AM40" s="44"/>
+      <c r="AN40" s="44"/>
+      <c r="AO40" s="45"/>
+      <c r="AP40" s="45"/>
+      <c r="AQ40" s="45"/>
+      <c r="AR40" s="45"/>
     </row>
     <row r="41" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="38"/>
@@ -7541,33 +7550,33 @@
       <c r="Q41" s="36"/>
       <c r="R41" s="36"/>
       <c r="S41" s="36"/>
-      <c r="T41" s="44"/>
-      <c r="U41" s="44"/>
-      <c r="V41" s="44"/>
-      <c r="W41" s="44"/>
-      <c r="X41" s="44"/>
-      <c r="Y41" s="44"/>
-      <c r="Z41" s="44"/>
-      <c r="AA41" s="77" t="s">
+      <c r="T41" s="43"/>
+      <c r="U41" s="43"/>
+      <c r="V41" s="43"/>
+      <c r="W41" s="43"/>
+      <c r="X41" s="43"/>
+      <c r="Y41" s="43"/>
+      <c r="Z41" s="43"/>
+      <c r="AA41" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="AB41" s="79"/>
-      <c r="AC41" s="44"/>
-      <c r="AD41" s="45"/>
-      <c r="AE41" s="45"/>
-      <c r="AF41" s="45"/>
-      <c r="AG41" s="45"/>
-      <c r="AH41" s="45"/>
-      <c r="AI41" s="45"/>
-      <c r="AJ41" s="45"/>
-      <c r="AK41" s="45"/>
-      <c r="AL41" s="45"/>
-      <c r="AM41" s="45"/>
-      <c r="AN41" s="45"/>
-      <c r="AO41" s="46"/>
-      <c r="AP41" s="46"/>
-      <c r="AQ41" s="46"/>
-      <c r="AR41" s="46"/>
+      <c r="AB41" s="55"/>
+      <c r="AC41" s="43"/>
+      <c r="AD41" s="44"/>
+      <c r="AE41" s="44"/>
+      <c r="AF41" s="44"/>
+      <c r="AG41" s="44"/>
+      <c r="AH41" s="44"/>
+      <c r="AI41" s="44"/>
+      <c r="AJ41" s="44"/>
+      <c r="AK41" s="44"/>
+      <c r="AL41" s="44"/>
+      <c r="AM41" s="44"/>
+      <c r="AN41" s="44"/>
+      <c r="AO41" s="45"/>
+      <c r="AP41" s="45"/>
+      <c r="AQ41" s="45"/>
+      <c r="AR41" s="45"/>
     </row>
     <row r="42" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="38"/>
@@ -7588,31 +7597,31 @@
       <c r="Q42" s="36"/>
       <c r="R42" s="36"/>
       <c r="S42" s="36"/>
-      <c r="T42" s="44"/>
-      <c r="U42" s="44"/>
-      <c r="V42" s="44"/>
-      <c r="W42" s="44"/>
-      <c r="X42" s="44"/>
-      <c r="Y42" s="44"/>
-      <c r="Z42" s="44"/>
-      <c r="AA42" s="77"/>
-      <c r="AB42" s="79"/>
-      <c r="AC42" s="44"/>
-      <c r="AD42" s="45"/>
-      <c r="AE42" s="45"/>
-      <c r="AF42" s="45"/>
-      <c r="AG42" s="45"/>
-      <c r="AH42" s="45"/>
-      <c r="AI42" s="45"/>
-      <c r="AJ42" s="45"/>
-      <c r="AK42" s="45"/>
-      <c r="AL42" s="45"/>
-      <c r="AM42" s="45"/>
-      <c r="AN42" s="45"/>
-      <c r="AO42" s="46"/>
-      <c r="AP42" s="46"/>
-      <c r="AQ42" s="46"/>
-      <c r="AR42" s="46"/>
+      <c r="T42" s="43"/>
+      <c r="U42" s="43"/>
+      <c r="V42" s="43"/>
+      <c r="W42" s="43"/>
+      <c r="X42" s="43"/>
+      <c r="Y42" s="43"/>
+      <c r="Z42" s="43"/>
+      <c r="AA42" s="53"/>
+      <c r="AB42" s="55"/>
+      <c r="AC42" s="43"/>
+      <c r="AD42" s="44"/>
+      <c r="AE42" s="44"/>
+      <c r="AF42" s="44"/>
+      <c r="AG42" s="44"/>
+      <c r="AH42" s="44"/>
+      <c r="AI42" s="44"/>
+      <c r="AJ42" s="44"/>
+      <c r="AK42" s="44"/>
+      <c r="AL42" s="44"/>
+      <c r="AM42" s="44"/>
+      <c r="AN42" s="44"/>
+      <c r="AO42" s="45"/>
+      <c r="AP42" s="45"/>
+      <c r="AQ42" s="45"/>
+      <c r="AR42" s="45"/>
     </row>
     <row r="43" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="38"/>
@@ -7633,33 +7642,33 @@
       <c r="Q43" s="36"/>
       <c r="R43" s="36"/>
       <c r="S43" s="36"/>
-      <c r="T43" s="44"/>
-      <c r="U43" s="44"/>
-      <c r="V43" s="44"/>
-      <c r="W43" s="44"/>
-      <c r="X43" s="44"/>
-      <c r="Y43" s="44"/>
-      <c r="Z43" s="44"/>
-      <c r="AA43" s="77" t="s">
+      <c r="T43" s="43"/>
+      <c r="U43" s="43"/>
+      <c r="V43" s="43"/>
+      <c r="W43" s="43"/>
+      <c r="X43" s="43"/>
+      <c r="Y43" s="43"/>
+      <c r="Z43" s="43"/>
+      <c r="AA43" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="AB43" s="79"/>
-      <c r="AC43" s="44"/>
-      <c r="AD43" s="45"/>
-      <c r="AE43" s="45"/>
-      <c r="AF43" s="45"/>
-      <c r="AG43" s="45"/>
-      <c r="AH43" s="45"/>
-      <c r="AI43" s="45"/>
-      <c r="AJ43" s="45"/>
-      <c r="AK43" s="45"/>
-      <c r="AL43" s="45"/>
-      <c r="AM43" s="45"/>
-      <c r="AN43" s="45"/>
-      <c r="AO43" s="46"/>
-      <c r="AP43" s="46"/>
-      <c r="AQ43" s="46"/>
-      <c r="AR43" s="46"/>
+      <c r="AB43" s="55"/>
+      <c r="AC43" s="43"/>
+      <c r="AD43" s="44"/>
+      <c r="AE43" s="44"/>
+      <c r="AF43" s="44"/>
+      <c r="AG43" s="44"/>
+      <c r="AH43" s="44"/>
+      <c r="AI43" s="44"/>
+      <c r="AJ43" s="44"/>
+      <c r="AK43" s="44"/>
+      <c r="AL43" s="44"/>
+      <c r="AM43" s="44"/>
+      <c r="AN43" s="44"/>
+      <c r="AO43" s="45"/>
+      <c r="AP43" s="45"/>
+      <c r="AQ43" s="45"/>
+      <c r="AR43" s="45"/>
     </row>
     <row r="44" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="38"/>
@@ -7680,33 +7689,33 @@
       <c r="Q44" s="36"/>
       <c r="R44" s="36"/>
       <c r="S44" s="36"/>
-      <c r="T44" s="44"/>
-      <c r="U44" s="44"/>
-      <c r="V44" s="44"/>
-      <c r="W44" s="44"/>
-      <c r="X44" s="44"/>
-      <c r="Y44" s="44"/>
-      <c r="Z44" s="44"/>
-      <c r="AA44" s="77" t="s">
+      <c r="T44" s="43"/>
+      <c r="U44" s="43"/>
+      <c r="V44" s="43"/>
+      <c r="W44" s="43"/>
+      <c r="X44" s="43"/>
+      <c r="Y44" s="43"/>
+      <c r="Z44" s="43"/>
+      <c r="AA44" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="AB44" s="79"/>
-      <c r="AC44" s="44"/>
-      <c r="AD44" s="45"/>
-      <c r="AE44" s="45"/>
-      <c r="AF44" s="45"/>
-      <c r="AG44" s="45"/>
-      <c r="AH44" s="45"/>
-      <c r="AI44" s="45"/>
-      <c r="AJ44" s="45"/>
-      <c r="AK44" s="45"/>
-      <c r="AL44" s="45"/>
-      <c r="AM44" s="45"/>
-      <c r="AN44" s="45"/>
-      <c r="AO44" s="46"/>
-      <c r="AP44" s="46"/>
-      <c r="AQ44" s="46"/>
-      <c r="AR44" s="46"/>
+      <c r="AB44" s="55"/>
+      <c r="AC44" s="43"/>
+      <c r="AD44" s="44"/>
+      <c r="AE44" s="44"/>
+      <c r="AF44" s="44"/>
+      <c r="AG44" s="44"/>
+      <c r="AH44" s="44"/>
+      <c r="AI44" s="44"/>
+      <c r="AJ44" s="44"/>
+      <c r="AK44" s="44"/>
+      <c r="AL44" s="44"/>
+      <c r="AM44" s="44"/>
+      <c r="AN44" s="44"/>
+      <c r="AO44" s="45"/>
+      <c r="AP44" s="45"/>
+      <c r="AQ44" s="45"/>
+      <c r="AR44" s="45"/>
     </row>
     <row r="45" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="38"/>
@@ -7727,33 +7736,33 @@
       <c r="Q45" s="36"/>
       <c r="R45" s="36"/>
       <c r="S45" s="36"/>
-      <c r="T45" s="44"/>
-      <c r="U45" s="44"/>
-      <c r="V45" s="44"/>
-      <c r="W45" s="44"/>
-      <c r="X45" s="44"/>
-      <c r="Y45" s="44"/>
-      <c r="Z45" s="44"/>
-      <c r="AA45" s="77" t="s">
+      <c r="T45" s="43"/>
+      <c r="U45" s="43"/>
+      <c r="V45" s="43"/>
+      <c r="W45" s="43"/>
+      <c r="X45" s="43"/>
+      <c r="Y45" s="43"/>
+      <c r="Z45" s="43"/>
+      <c r="AA45" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="AB45" s="79"/>
-      <c r="AC45" s="44"/>
-      <c r="AD45" s="45"/>
-      <c r="AE45" s="45"/>
-      <c r="AF45" s="45"/>
-      <c r="AG45" s="45"/>
-      <c r="AH45" s="45"/>
-      <c r="AI45" s="45"/>
-      <c r="AJ45" s="45"/>
-      <c r="AK45" s="45"/>
-      <c r="AL45" s="45"/>
-      <c r="AM45" s="45"/>
-      <c r="AN45" s="45"/>
-      <c r="AO45" s="46"/>
-      <c r="AP45" s="46"/>
-      <c r="AQ45" s="46"/>
-      <c r="AR45" s="46"/>
+      <c r="AB45" s="55"/>
+      <c r="AC45" s="43"/>
+      <c r="AD45" s="44"/>
+      <c r="AE45" s="44"/>
+      <c r="AF45" s="44"/>
+      <c r="AG45" s="44"/>
+      <c r="AH45" s="44"/>
+      <c r="AI45" s="44"/>
+      <c r="AJ45" s="44"/>
+      <c r="AK45" s="44"/>
+      <c r="AL45" s="44"/>
+      <c r="AM45" s="44"/>
+      <c r="AN45" s="44"/>
+      <c r="AO45" s="45"/>
+      <c r="AP45" s="45"/>
+      <c r="AQ45" s="45"/>
+      <c r="AR45" s="45"/>
     </row>
     <row r="46" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="38"/>
@@ -7774,33 +7783,33 @@
       <c r="Q46" s="36"/>
       <c r="R46" s="36"/>
       <c r="S46" s="36"/>
-      <c r="T46" s="44"/>
-      <c r="U46" s="44"/>
-      <c r="V46" s="44"/>
-      <c r="W46" s="44"/>
-      <c r="X46" s="44"/>
-      <c r="Y46" s="44"/>
-      <c r="Z46" s="44"/>
-      <c r="AA46" s="77" t="s">
+      <c r="T46" s="43"/>
+      <c r="U46" s="43"/>
+      <c r="V46" s="43"/>
+      <c r="W46" s="43"/>
+      <c r="X46" s="43"/>
+      <c r="Y46" s="43"/>
+      <c r="Z46" s="43"/>
+      <c r="AA46" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="AB46" s="79"/>
-      <c r="AC46" s="44"/>
-      <c r="AD46" s="45"/>
-      <c r="AE46" s="45"/>
-      <c r="AF46" s="45"/>
-      <c r="AG46" s="45"/>
-      <c r="AH46" s="45"/>
-      <c r="AI46" s="45"/>
-      <c r="AJ46" s="45"/>
-      <c r="AK46" s="45"/>
-      <c r="AL46" s="45"/>
-      <c r="AM46" s="45"/>
-      <c r="AN46" s="45"/>
-      <c r="AO46" s="46"/>
-      <c r="AP46" s="46"/>
-      <c r="AQ46" s="46"/>
-      <c r="AR46" s="46"/>
+      <c r="AB46" s="55"/>
+      <c r="AC46" s="43"/>
+      <c r="AD46" s="44"/>
+      <c r="AE46" s="44"/>
+      <c r="AF46" s="44"/>
+      <c r="AG46" s="44"/>
+      <c r="AH46" s="44"/>
+      <c r="AI46" s="44"/>
+      <c r="AJ46" s="44"/>
+      <c r="AK46" s="44"/>
+      <c r="AL46" s="44"/>
+      <c r="AM46" s="44"/>
+      <c r="AN46" s="44"/>
+      <c r="AO46" s="45"/>
+      <c r="AP46" s="45"/>
+      <c r="AQ46" s="45"/>
+      <c r="AR46" s="45"/>
     </row>
     <row r="47" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="38"/>
@@ -7821,33 +7830,33 @@
       <c r="Q47" s="36"/>
       <c r="R47" s="36"/>
       <c r="S47" s="36"/>
-      <c r="T47" s="44"/>
-      <c r="U47" s="44"/>
-      <c r="V47" s="44"/>
-      <c r="W47" s="44"/>
-      <c r="X47" s="44"/>
-      <c r="Y47" s="44"/>
-      <c r="Z47" s="44"/>
-      <c r="AA47" s="77"/>
-      <c r="AB47" s="79"/>
-      <c r="AC47" s="44" t="s">
+      <c r="T47" s="43"/>
+      <c r="U47" s="43"/>
+      <c r="V47" s="43"/>
+      <c r="W47" s="43"/>
+      <c r="X47" s="43"/>
+      <c r="Y47" s="43"/>
+      <c r="Z47" s="43"/>
+      <c r="AA47" s="53"/>
+      <c r="AB47" s="55"/>
+      <c r="AC47" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="AD47" s="45"/>
-      <c r="AE47" s="45"/>
-      <c r="AF47" s="45"/>
-      <c r="AG47" s="45"/>
-      <c r="AH47" s="45"/>
-      <c r="AI47" s="45"/>
-      <c r="AJ47" s="45"/>
-      <c r="AK47" s="45"/>
-      <c r="AL47" s="45"/>
-      <c r="AM47" s="45"/>
-      <c r="AN47" s="45"/>
-      <c r="AO47" s="46"/>
-      <c r="AP47" s="46"/>
-      <c r="AQ47" s="46"/>
-      <c r="AR47" s="46"/>
+      <c r="AD47" s="44"/>
+      <c r="AE47" s="44"/>
+      <c r="AF47" s="44"/>
+      <c r="AG47" s="44"/>
+      <c r="AH47" s="44"/>
+      <c r="AI47" s="44"/>
+      <c r="AJ47" s="44"/>
+      <c r="AK47" s="44"/>
+      <c r="AL47" s="44"/>
+      <c r="AM47" s="44"/>
+      <c r="AN47" s="44"/>
+      <c r="AO47" s="45"/>
+      <c r="AP47" s="45"/>
+      <c r="AQ47" s="45"/>
+      <c r="AR47" s="45"/>
     </row>
     <row r="48" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="38"/>
@@ -7868,33 +7877,33 @@
       <c r="Q48" s="36"/>
       <c r="R48" s="36"/>
       <c r="S48" s="36"/>
-      <c r="T48" s="44"/>
-      <c r="U48" s="44"/>
-      <c r="V48" s="44"/>
-      <c r="W48" s="44"/>
-      <c r="X48" s="44"/>
-      <c r="Y48" s="44"/>
-      <c r="Z48" s="44"/>
-      <c r="AA48" s="77"/>
-      <c r="AB48" s="79"/>
-      <c r="AC48" s="44" t="s">
+      <c r="T48" s="43"/>
+      <c r="U48" s="43"/>
+      <c r="V48" s="43"/>
+      <c r="W48" s="43"/>
+      <c r="X48" s="43"/>
+      <c r="Y48" s="43"/>
+      <c r="Z48" s="43"/>
+      <c r="AA48" s="53"/>
+      <c r="AB48" s="55"/>
+      <c r="AC48" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="AD48" s="45"/>
-      <c r="AE48" s="45"/>
-      <c r="AF48" s="45"/>
-      <c r="AG48" s="45"/>
-      <c r="AH48" s="45"/>
-      <c r="AI48" s="45"/>
-      <c r="AJ48" s="45"/>
-      <c r="AK48" s="45"/>
-      <c r="AL48" s="45"/>
-      <c r="AM48" s="45"/>
-      <c r="AN48" s="45"/>
-      <c r="AO48" s="46"/>
-      <c r="AP48" s="46"/>
-      <c r="AQ48" s="46"/>
-      <c r="AR48" s="46"/>
+      <c r="AD48" s="44"/>
+      <c r="AE48" s="44"/>
+      <c r="AF48" s="44"/>
+      <c r="AG48" s="44"/>
+      <c r="AH48" s="44"/>
+      <c r="AI48" s="44"/>
+      <c r="AJ48" s="44"/>
+      <c r="AK48" s="44"/>
+      <c r="AL48" s="44"/>
+      <c r="AM48" s="44"/>
+      <c r="AN48" s="44"/>
+      <c r="AO48" s="45"/>
+      <c r="AP48" s="45"/>
+      <c r="AQ48" s="45"/>
+      <c r="AR48" s="45"/>
     </row>
     <row r="49" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="38"/>
@@ -7915,33 +7924,33 @@
       <c r="Q49" s="36"/>
       <c r="R49" s="36"/>
       <c r="S49" s="36"/>
-      <c r="T49" s="44"/>
-      <c r="U49" s="44"/>
-      <c r="V49" s="44"/>
-      <c r="W49" s="44"/>
-      <c r="X49" s="44"/>
-      <c r="Y49" s="44"/>
-      <c r="Z49" s="44"/>
-      <c r="AA49" s="77"/>
-      <c r="AB49" s="79"/>
-      <c r="AC49" s="44" t="s">
+      <c r="T49" s="43"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="43"/>
+      <c r="W49" s="43"/>
+      <c r="X49" s="43"/>
+      <c r="Y49" s="43"/>
+      <c r="Z49" s="43"/>
+      <c r="AA49" s="53"/>
+      <c r="AB49" s="55"/>
+      <c r="AC49" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="AD49" s="45"/>
-      <c r="AE49" s="45"/>
-      <c r="AF49" s="45"/>
-      <c r="AG49" s="45"/>
-      <c r="AH49" s="45"/>
-      <c r="AI49" s="45"/>
-      <c r="AJ49" s="45"/>
-      <c r="AK49" s="45"/>
-      <c r="AL49" s="45"/>
-      <c r="AM49" s="45"/>
-      <c r="AN49" s="45"/>
-      <c r="AO49" s="46"/>
-      <c r="AP49" s="46"/>
-      <c r="AQ49" s="46"/>
-      <c r="AR49" s="46"/>
+      <c r="AD49" s="44"/>
+      <c r="AE49" s="44"/>
+      <c r="AF49" s="44"/>
+      <c r="AG49" s="44"/>
+      <c r="AH49" s="44"/>
+      <c r="AI49" s="44"/>
+      <c r="AJ49" s="44"/>
+      <c r="AK49" s="44"/>
+      <c r="AL49" s="44"/>
+      <c r="AM49" s="44"/>
+      <c r="AN49" s="44"/>
+      <c r="AO49" s="45"/>
+      <c r="AP49" s="45"/>
+      <c r="AQ49" s="45"/>
+      <c r="AR49" s="45"/>
     </row>
     <row r="50" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="38"/>
@@ -7962,33 +7971,33 @@
       <c r="Q50" s="36"/>
       <c r="R50" s="36"/>
       <c r="S50" s="36"/>
-      <c r="T50" s="44"/>
-      <c r="U50" s="44"/>
-      <c r="V50" s="44"/>
-      <c r="W50" s="44"/>
-      <c r="X50" s="44"/>
-      <c r="Y50" s="44"/>
-      <c r="Z50" s="44"/>
-      <c r="AA50" s="77"/>
-      <c r="AB50" s="79"/>
-      <c r="AC50" s="44" t="s">
+      <c r="T50" s="43"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="43"/>
+      <c r="X50" s="43"/>
+      <c r="Y50" s="43"/>
+      <c r="Z50" s="43"/>
+      <c r="AA50" s="53"/>
+      <c r="AB50" s="55"/>
+      <c r="AC50" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="AD50" s="45"/>
-      <c r="AE50" s="45"/>
-      <c r="AF50" s="45"/>
-      <c r="AG50" s="45"/>
-      <c r="AH50" s="45"/>
-      <c r="AI50" s="45"/>
-      <c r="AJ50" s="45"/>
-      <c r="AK50" s="45"/>
-      <c r="AL50" s="45"/>
-      <c r="AM50" s="45"/>
-      <c r="AN50" s="45"/>
-      <c r="AO50" s="46"/>
-      <c r="AP50" s="46"/>
-      <c r="AQ50" s="46"/>
-      <c r="AR50" s="46"/>
+      <c r="AD50" s="44"/>
+      <c r="AE50" s="44"/>
+      <c r="AF50" s="44"/>
+      <c r="AG50" s="44"/>
+      <c r="AH50" s="44"/>
+      <c r="AI50" s="44"/>
+      <c r="AJ50" s="44"/>
+      <c r="AK50" s="44"/>
+      <c r="AL50" s="44"/>
+      <c r="AM50" s="44"/>
+      <c r="AN50" s="44"/>
+      <c r="AO50" s="45"/>
+      <c r="AP50" s="45"/>
+      <c r="AQ50" s="45"/>
+      <c r="AR50" s="45"/>
     </row>
     <row r="51" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="38"/>
@@ -8009,33 +8018,33 @@
       <c r="Q51" s="36"/>
       <c r="R51" s="36"/>
       <c r="S51" s="36"/>
-      <c r="T51" s="44"/>
-      <c r="U51" s="44"/>
-      <c r="V51" s="44"/>
-      <c r="W51" s="44"/>
-      <c r="X51" s="44"/>
-      <c r="Y51" s="44"/>
-      <c r="Z51" s="44"/>
-      <c r="AA51" s="77"/>
-      <c r="AB51" s="79"/>
-      <c r="AC51" s="44" t="s">
+      <c r="T51" s="43"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="43"/>
+      <c r="X51" s="43"/>
+      <c r="Y51" s="43"/>
+      <c r="Z51" s="43"/>
+      <c r="AA51" s="53"/>
+      <c r="AB51" s="55"/>
+      <c r="AC51" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="AD51" s="45"/>
-      <c r="AE51" s="45"/>
-      <c r="AF51" s="45"/>
-      <c r="AG51" s="45"/>
-      <c r="AH51" s="45"/>
-      <c r="AI51" s="45"/>
-      <c r="AJ51" s="45"/>
-      <c r="AK51" s="45"/>
-      <c r="AL51" s="45"/>
-      <c r="AM51" s="45"/>
-      <c r="AN51" s="45"/>
-      <c r="AO51" s="46"/>
-      <c r="AP51" s="46"/>
-      <c r="AQ51" s="46"/>
-      <c r="AR51" s="46"/>
+      <c r="AD51" s="44"/>
+      <c r="AE51" s="44"/>
+      <c r="AF51" s="44"/>
+      <c r="AG51" s="44"/>
+      <c r="AH51" s="44"/>
+      <c r="AI51" s="44"/>
+      <c r="AJ51" s="44"/>
+      <c r="AK51" s="44"/>
+      <c r="AL51" s="44"/>
+      <c r="AM51" s="44"/>
+      <c r="AN51" s="44"/>
+      <c r="AO51" s="45"/>
+      <c r="AP51" s="45"/>
+      <c r="AQ51" s="45"/>
+      <c r="AR51" s="45"/>
     </row>
     <row r="52" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="38"/>
@@ -8056,33 +8065,33 @@
       <c r="Q52" s="36"/>
       <c r="R52" s="36"/>
       <c r="S52" s="36"/>
-      <c r="T52" s="44"/>
-      <c r="U52" s="44"/>
-      <c r="V52" s="44"/>
-      <c r="W52" s="44"/>
-      <c r="X52" s="44"/>
-      <c r="Y52" s="44"/>
-      <c r="Z52" s="44"/>
-      <c r="AA52" s="77"/>
-      <c r="AB52" s="79"/>
-      <c r="AC52" s="44" t="s">
+      <c r="T52" s="43"/>
+      <c r="U52" s="43"/>
+      <c r="V52" s="43"/>
+      <c r="W52" s="43"/>
+      <c r="X52" s="43"/>
+      <c r="Y52" s="43"/>
+      <c r="Z52" s="43"/>
+      <c r="AA52" s="53"/>
+      <c r="AB52" s="55"/>
+      <c r="AC52" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="AD52" s="45"/>
-      <c r="AE52" s="45"/>
-      <c r="AF52" s="45"/>
-      <c r="AG52" s="45"/>
-      <c r="AH52" s="45"/>
-      <c r="AI52" s="45"/>
-      <c r="AJ52" s="45"/>
-      <c r="AK52" s="45"/>
-      <c r="AL52" s="45"/>
-      <c r="AM52" s="45"/>
-      <c r="AN52" s="45"/>
-      <c r="AO52" s="46"/>
-      <c r="AP52" s="46"/>
-      <c r="AQ52" s="46"/>
-      <c r="AR52" s="46"/>
+      <c r="AD52" s="44"/>
+      <c r="AE52" s="44"/>
+      <c r="AF52" s="44"/>
+      <c r="AG52" s="44"/>
+      <c r="AH52" s="44"/>
+      <c r="AI52" s="44"/>
+      <c r="AJ52" s="44"/>
+      <c r="AK52" s="44"/>
+      <c r="AL52" s="44"/>
+      <c r="AM52" s="44"/>
+      <c r="AN52" s="44"/>
+      <c r="AO52" s="45"/>
+      <c r="AP52" s="45"/>
+      <c r="AQ52" s="45"/>
+      <c r="AR52" s="45"/>
     </row>
     <row r="53" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="38"/>
@@ -8103,33 +8112,33 @@
       <c r="Q53" s="36"/>
       <c r="R53" s="36"/>
       <c r="S53" s="36"/>
-      <c r="T53" s="44"/>
-      <c r="U53" s="44"/>
-      <c r="V53" s="44"/>
-      <c r="W53" s="44"/>
-      <c r="X53" s="44"/>
-      <c r="Y53" s="44"/>
-      <c r="Z53" s="44"/>
-      <c r="AA53" s="77"/>
-      <c r="AB53" s="79"/>
-      <c r="AC53" s="44"/>
-      <c r="AD53" s="45" t="s">
+      <c r="T53" s="43"/>
+      <c r="U53" s="43"/>
+      <c r="V53" s="43"/>
+      <c r="W53" s="43"/>
+      <c r="X53" s="43"/>
+      <c r="Y53" s="43"/>
+      <c r="Z53" s="43"/>
+      <c r="AA53" s="53"/>
+      <c r="AB53" s="55"/>
+      <c r="AC53" s="43"/>
+      <c r="AD53" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="AE53" s="45"/>
-      <c r="AF53" s="45"/>
-      <c r="AG53" s="45"/>
-      <c r="AH53" s="45"/>
-      <c r="AI53" s="45"/>
-      <c r="AJ53" s="45"/>
-      <c r="AK53" s="45"/>
-      <c r="AL53" s="45"/>
-      <c r="AM53" s="45"/>
-      <c r="AN53" s="45"/>
-      <c r="AO53" s="46"/>
-      <c r="AP53" s="46"/>
-      <c r="AQ53" s="46"/>
-      <c r="AR53" s="46"/>
+      <c r="AE53" s="44"/>
+      <c r="AF53" s="44"/>
+      <c r="AG53" s="44"/>
+      <c r="AH53" s="44"/>
+      <c r="AI53" s="44"/>
+      <c r="AJ53" s="44"/>
+      <c r="AK53" s="44"/>
+      <c r="AL53" s="44"/>
+      <c r="AM53" s="44"/>
+      <c r="AN53" s="44"/>
+      <c r="AO53" s="45"/>
+      <c r="AP53" s="45"/>
+      <c r="AQ53" s="45"/>
+      <c r="AR53" s="45"/>
     </row>
     <row r="54" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="38"/>
@@ -8150,33 +8159,33 @@
       <c r="Q54" s="36"/>
       <c r="R54" s="36"/>
       <c r="S54" s="36"/>
-      <c r="T54" s="44"/>
-      <c r="U54" s="44"/>
-      <c r="V54" s="44"/>
-      <c r="W54" s="44"/>
-      <c r="X54" s="44"/>
-      <c r="Y54" s="44"/>
-      <c r="Z54" s="44"/>
-      <c r="AA54" s="44"/>
-      <c r="AB54" s="44"/>
-      <c r="AC54" s="44"/>
-      <c r="AD54" s="45" t="s">
+      <c r="T54" s="43"/>
+      <c r="U54" s="43"/>
+      <c r="V54" s="43"/>
+      <c r="W54" s="43"/>
+      <c r="X54" s="43"/>
+      <c r="Y54" s="43"/>
+      <c r="Z54" s="43"/>
+      <c r="AA54" s="43"/>
+      <c r="AB54" s="43"/>
+      <c r="AC54" s="43"/>
+      <c r="AD54" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="AE54" s="45"/>
-      <c r="AF54" s="45"/>
-      <c r="AG54" s="45"/>
-      <c r="AH54" s="45"/>
-      <c r="AI54" s="45"/>
-      <c r="AJ54" s="45"/>
-      <c r="AK54" s="45"/>
-      <c r="AL54" s="45"/>
-      <c r="AM54" s="45"/>
-      <c r="AN54" s="45"/>
-      <c r="AO54" s="46"/>
-      <c r="AP54" s="46"/>
-      <c r="AQ54" s="46"/>
-      <c r="AR54" s="46"/>
+      <c r="AE54" s="44"/>
+      <c r="AF54" s="44"/>
+      <c r="AG54" s="44"/>
+      <c r="AH54" s="44"/>
+      <c r="AI54" s="44"/>
+      <c r="AJ54" s="44"/>
+      <c r="AK54" s="44"/>
+      <c r="AL54" s="44"/>
+      <c r="AM54" s="44"/>
+      <c r="AN54" s="44"/>
+      <c r="AO54" s="45"/>
+      <c r="AP54" s="45"/>
+      <c r="AQ54" s="45"/>
+      <c r="AR54" s="45"/>
     </row>
     <row r="55" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="38"/>
@@ -8197,33 +8206,33 @@
       <c r="Q55" s="36"/>
       <c r="R55" s="36"/>
       <c r="S55" s="36"/>
-      <c r="T55" s="44"/>
-      <c r="U55" s="44"/>
-      <c r="V55" s="44"/>
-      <c r="W55" s="44"/>
-      <c r="X55" s="44"/>
-      <c r="Y55" s="44"/>
-      <c r="Z55" s="44"/>
-      <c r="AA55" s="44"/>
-      <c r="AB55" s="44"/>
-      <c r="AC55" s="44"/>
-      <c r="AD55" s="45" t="s">
+      <c r="T55" s="43"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="43"/>
+      <c r="X55" s="43"/>
+      <c r="Y55" s="43"/>
+      <c r="Z55" s="43"/>
+      <c r="AA55" s="43"/>
+      <c r="AB55" s="43"/>
+      <c r="AC55" s="43"/>
+      <c r="AD55" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="AE55" s="45"/>
-      <c r="AF55" s="45"/>
-      <c r="AG55" s="45"/>
-      <c r="AH55" s="45"/>
-      <c r="AI55" s="45"/>
-      <c r="AJ55" s="45"/>
-      <c r="AK55" s="45"/>
-      <c r="AL55" s="45"/>
-      <c r="AM55" s="45"/>
-      <c r="AN55" s="45"/>
-      <c r="AO55" s="46"/>
-      <c r="AP55" s="46"/>
-      <c r="AQ55" s="46"/>
-      <c r="AR55" s="46"/>
+      <c r="AE55" s="44"/>
+      <c r="AF55" s="44"/>
+      <c r="AG55" s="44"/>
+      <c r="AH55" s="44"/>
+      <c r="AI55" s="44"/>
+      <c r="AJ55" s="44"/>
+      <c r="AK55" s="44"/>
+      <c r="AL55" s="44"/>
+      <c r="AM55" s="44"/>
+      <c r="AN55" s="44"/>
+      <c r="AO55" s="45"/>
+      <c r="AP55" s="45"/>
+      <c r="AQ55" s="45"/>
+      <c r="AR55" s="45"/>
     </row>
     <row r="56" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="38"/>
@@ -8244,35 +8253,33 @@
       <c r="Q56" s="36"/>
       <c r="R56" s="36"/>
       <c r="S56" s="36"/>
-      <c r="T56" s="44"/>
-      <c r="U56" s="44"/>
-      <c r="V56" s="44"/>
-      <c r="W56" s="44"/>
-      <c r="X56" s="44"/>
-      <c r="Y56" s="44"/>
-      <c r="Z56" s="44"/>
-      <c r="AA56" s="44"/>
-      <c r="AB56" s="44"/>
-      <c r="AC56" s="44"/>
-      <c r="AD56" s="45"/>
-      <c r="AE56" s="45"/>
-      <c r="AF56" s="45"/>
-      <c r="AG56" s="45" t="s">
+      <c r="T56" s="43"/>
+      <c r="U56" s="43"/>
+      <c r="V56" s="43"/>
+      <c r="W56" s="43"/>
+      <c r="X56" s="43"/>
+      <c r="Y56" s="43"/>
+      <c r="Z56" s="43"/>
+      <c r="AA56" s="43"/>
+      <c r="AB56" s="43"/>
+      <c r="AC56" s="43"/>
+      <c r="AD56" s="44"/>
+      <c r="AE56" s="44"/>
+      <c r="AF56" s="44"/>
+      <c r="AG56" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="AH56" s="45"/>
-      <c r="AI56" s="45"/>
-      <c r="AJ56" s="45"/>
-      <c r="AK56" s="45"/>
-      <c r="AL56" s="45"/>
-      <c r="AM56" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN56" s="45"/>
-      <c r="AO56" s="46"/>
-      <c r="AP56" s="46"/>
-      <c r="AQ56" s="46"/>
-      <c r="AR56" s="46"/>
+      <c r="AH56" s="44"/>
+      <c r="AI56" s="44"/>
+      <c r="AJ56" s="44"/>
+      <c r="AK56" s="44"/>
+      <c r="AL56" s="44"/>
+      <c r="AM56" s="44"/>
+      <c r="AN56" s="44"/>
+      <c r="AO56" s="45"/>
+      <c r="AP56" s="45"/>
+      <c r="AQ56" s="45"/>
+      <c r="AR56" s="45"/>
     </row>
     <row r="57" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="38"/>
@@ -8293,33 +8300,33 @@
       <c r="Q57" s="36"/>
       <c r="R57" s="36"/>
       <c r="S57" s="36"/>
-      <c r="T57" s="44"/>
-      <c r="U57" s="44"/>
-      <c r="V57" s="44"/>
-      <c r="W57" s="44"/>
-      <c r="X57" s="44"/>
-      <c r="Y57" s="44"/>
-      <c r="Z57" s="44"/>
-      <c r="AA57" s="44"/>
-      <c r="AB57" s="44"/>
-      <c r="AC57" s="44"/>
-      <c r="AD57" s="45"/>
-      <c r="AE57" s="45"/>
-      <c r="AF57" s="45"/>
-      <c r="AG57" s="45" t="s">
+      <c r="T57" s="43"/>
+      <c r="U57" s="43"/>
+      <c r="V57" s="43"/>
+      <c r="W57" s="43"/>
+      <c r="X57" s="43"/>
+      <c r="Y57" s="43"/>
+      <c r="Z57" s="43"/>
+      <c r="AA57" s="43"/>
+      <c r="AB57" s="43"/>
+      <c r="AC57" s="43"/>
+      <c r="AD57" s="44"/>
+      <c r="AE57" s="44"/>
+      <c r="AF57" s="44"/>
+      <c r="AG57" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="AH57" s="45"/>
-      <c r="AI57" s="45"/>
-      <c r="AJ57" s="45"/>
-      <c r="AK57" s="45"/>
-      <c r="AL57" s="45"/>
-      <c r="AM57" s="45"/>
-      <c r="AN57" s="45"/>
-      <c r="AO57" s="46"/>
-      <c r="AP57" s="46"/>
-      <c r="AQ57" s="46"/>
-      <c r="AR57" s="46"/>
+      <c r="AH57" s="44"/>
+      <c r="AI57" s="44"/>
+      <c r="AJ57" s="44"/>
+      <c r="AK57" s="44"/>
+      <c r="AL57" s="44"/>
+      <c r="AM57" s="44"/>
+      <c r="AN57" s="44"/>
+      <c r="AO57" s="45"/>
+      <c r="AP57" s="45"/>
+      <c r="AQ57" s="45"/>
+      <c r="AR57" s="45"/>
     </row>
     <row r="58" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="38"/>
@@ -8340,33 +8347,31 @@
       <c r="Q58" s="36"/>
       <c r="R58" s="36"/>
       <c r="S58" s="36"/>
-      <c r="T58" s="44"/>
-      <c r="U58" s="44"/>
-      <c r="V58" s="44"/>
-      <c r="W58" s="44"/>
-      <c r="X58" s="44"/>
-      <c r="Y58" s="44"/>
-      <c r="Z58" s="44"/>
-      <c r="AA58" s="44"/>
-      <c r="AB58" s="44"/>
-      <c r="AC58" s="44"/>
-      <c r="AD58" s="45"/>
-      <c r="AE58" s="45"/>
-      <c r="AF58" s="45"/>
-      <c r="AG58" s="45"/>
-      <c r="AH58" s="45"/>
-      <c r="AI58" s="45"/>
-      <c r="AJ58" s="45"/>
-      <c r="AK58" s="45"/>
-      <c r="AL58" s="45"/>
-      <c r="AM58" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN58" s="45"/>
-      <c r="AO58" s="46"/>
-      <c r="AP58" s="46"/>
-      <c r="AQ58" s="46"/>
-      <c r="AR58" s="46"/>
+      <c r="T58" s="43"/>
+      <c r="U58" s="43"/>
+      <c r="V58" s="43"/>
+      <c r="W58" s="43"/>
+      <c r="X58" s="43"/>
+      <c r="Y58" s="43"/>
+      <c r="Z58" s="43"/>
+      <c r="AA58" s="43"/>
+      <c r="AB58" s="43"/>
+      <c r="AC58" s="43"/>
+      <c r="AD58" s="44"/>
+      <c r="AE58" s="44"/>
+      <c r="AF58" s="44"/>
+      <c r="AG58" s="44"/>
+      <c r="AH58" s="44"/>
+      <c r="AI58" s="44"/>
+      <c r="AJ58" s="44"/>
+      <c r="AK58" s="44"/>
+      <c r="AL58" s="44"/>
+      <c r="AM58" s="44"/>
+      <c r="AN58" s="44"/>
+      <c r="AO58" s="45"/>
+      <c r="AP58" s="45"/>
+      <c r="AQ58" s="45"/>
+      <c r="AR58" s="45"/>
     </row>
     <row r="59" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="38"/>
@@ -8387,31 +8392,33 @@
       <c r="Q59" s="36"/>
       <c r="R59" s="36"/>
       <c r="S59" s="36"/>
-      <c r="T59" s="44"/>
-      <c r="U59" s="44"/>
-      <c r="V59" s="44"/>
-      <c r="W59" s="44"/>
-      <c r="X59" s="44"/>
-      <c r="Y59" s="44"/>
-      <c r="Z59" s="44"/>
-      <c r="AA59" s="44"/>
-      <c r="AB59" s="44"/>
-      <c r="AC59" s="44"/>
-      <c r="AD59" s="45"/>
-      <c r="AE59" s="45"/>
-      <c r="AF59" s="45"/>
-      <c r="AG59" s="45"/>
-      <c r="AH59" s="45"/>
-      <c r="AI59" s="45"/>
-      <c r="AJ59" s="45"/>
-      <c r="AK59" s="45"/>
-      <c r="AL59" s="45"/>
-      <c r="AM59" s="45"/>
-      <c r="AN59" s="45"/>
-      <c r="AO59" s="46"/>
-      <c r="AP59" s="46"/>
-      <c r="AQ59" s="46"/>
-      <c r="AR59" s="46"/>
+      <c r="T59" s="43"/>
+      <c r="U59" s="43"/>
+      <c r="V59" s="43"/>
+      <c r="W59" s="43"/>
+      <c r="X59" s="43"/>
+      <c r="Y59" s="43"/>
+      <c r="Z59" s="43"/>
+      <c r="AA59" s="43"/>
+      <c r="AB59" s="43"/>
+      <c r="AC59" s="43"/>
+      <c r="AD59" s="44"/>
+      <c r="AE59" s="44"/>
+      <c r="AF59" s="44"/>
+      <c r="AG59" s="44"/>
+      <c r="AH59" s="44"/>
+      <c r="AI59" s="44"/>
+      <c r="AJ59" s="44"/>
+      <c r="AK59" s="44"/>
+      <c r="AL59" s="44"/>
+      <c r="AM59" s="44"/>
+      <c r="AN59" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO59" s="45"/>
+      <c r="AP59" s="45"/>
+      <c r="AQ59" s="45"/>
+      <c r="AR59" s="45"/>
     </row>
     <row r="60" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="38"/>
@@ -8432,31 +8439,33 @@
       <c r="Q60" s="36"/>
       <c r="R60" s="36"/>
       <c r="S60" s="36"/>
-      <c r="T60" s="44"/>
-      <c r="U60" s="44"/>
-      <c r="V60" s="44"/>
-      <c r="W60" s="44"/>
-      <c r="X60" s="44"/>
-      <c r="Y60" s="44"/>
-      <c r="Z60" s="44"/>
-      <c r="AA60" s="44"/>
-      <c r="AB60" s="44"/>
-      <c r="AC60" s="44"/>
-      <c r="AD60" s="45"/>
-      <c r="AE60" s="45"/>
-      <c r="AF60" s="45"/>
-      <c r="AG60" s="45"/>
-      <c r="AH60" s="45"/>
-      <c r="AI60" s="45"/>
-      <c r="AJ60" s="45"/>
-      <c r="AK60" s="45"/>
-      <c r="AL60" s="45"/>
-      <c r="AM60" s="45"/>
-      <c r="AN60" s="45"/>
-      <c r="AO60" s="46"/>
-      <c r="AP60" s="46"/>
-      <c r="AQ60" s="46"/>
-      <c r="AR60" s="46"/>
+      <c r="T60" s="43"/>
+      <c r="U60" s="43"/>
+      <c r="V60" s="43"/>
+      <c r="W60" s="43"/>
+      <c r="X60" s="43"/>
+      <c r="Y60" s="43"/>
+      <c r="Z60" s="43"/>
+      <c r="AA60" s="43"/>
+      <c r="AB60" s="43"/>
+      <c r="AC60" s="43"/>
+      <c r="AD60" s="44"/>
+      <c r="AE60" s="44"/>
+      <c r="AF60" s="44"/>
+      <c r="AG60" s="44"/>
+      <c r="AH60" s="44"/>
+      <c r="AI60" s="44"/>
+      <c r="AJ60" s="44"/>
+      <c r="AK60" s="44"/>
+      <c r="AL60" s="44"/>
+      <c r="AM60" s="44"/>
+      <c r="AN60" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO60" s="45"/>
+      <c r="AP60" s="45"/>
+      <c r="AQ60" s="45"/>
+      <c r="AR60" s="45"/>
     </row>
     <row r="61" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="38"/>
@@ -8477,31 +8486,31 @@
       <c r="Q61" s="36"/>
       <c r="R61" s="36"/>
       <c r="S61" s="36"/>
-      <c r="T61" s="44"/>
-      <c r="U61" s="44"/>
-      <c r="V61" s="44"/>
-      <c r="W61" s="44"/>
-      <c r="X61" s="44"/>
-      <c r="Y61" s="44"/>
-      <c r="Z61" s="44"/>
-      <c r="AA61" s="44"/>
-      <c r="AB61" s="44"/>
-      <c r="AC61" s="44"/>
-      <c r="AD61" s="45"/>
-      <c r="AE61" s="45"/>
-      <c r="AF61" s="45"/>
-      <c r="AG61" s="45"/>
-      <c r="AH61" s="45"/>
-      <c r="AI61" s="45"/>
-      <c r="AJ61" s="45"/>
-      <c r="AK61" s="45"/>
-      <c r="AL61" s="45"/>
-      <c r="AM61" s="45"/>
-      <c r="AN61" s="45"/>
-      <c r="AO61" s="46"/>
-      <c r="AP61" s="46"/>
-      <c r="AQ61" s="46"/>
-      <c r="AR61" s="46"/>
+      <c r="T61" s="43"/>
+      <c r="U61" s="43"/>
+      <c r="V61" s="43"/>
+      <c r="W61" s="43"/>
+      <c r="X61" s="43"/>
+      <c r="Y61" s="43"/>
+      <c r="Z61" s="43"/>
+      <c r="AA61" s="43"/>
+      <c r="AB61" s="43"/>
+      <c r="AC61" s="43"/>
+      <c r="AD61" s="44"/>
+      <c r="AE61" s="44"/>
+      <c r="AF61" s="44"/>
+      <c r="AG61" s="44"/>
+      <c r="AH61" s="44"/>
+      <c r="AI61" s="44"/>
+      <c r="AJ61" s="44"/>
+      <c r="AK61" s="44"/>
+      <c r="AL61" s="44"/>
+      <c r="AM61" s="44"/>
+      <c r="AN61" s="44"/>
+      <c r="AO61" s="45"/>
+      <c r="AP61" s="45"/>
+      <c r="AQ61" s="45"/>
+      <c r="AR61" s="45"/>
     </row>
     <row r="62" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="38"/>
@@ -8522,55 +8531,55 @@
       <c r="Q62" s="36"/>
       <c r="R62" s="36"/>
       <c r="S62" s="36"/>
-      <c r="T62" s="44"/>
-      <c r="U62" s="44"/>
-      <c r="V62" s="44"/>
-      <c r="W62" s="44"/>
-      <c r="X62" s="44"/>
-      <c r="Y62" s="44"/>
-      <c r="Z62" s="44"/>
-      <c r="AA62" s="44"/>
-      <c r="AB62" s="44"/>
-      <c r="AC62" s="44"/>
-      <c r="AD62" s="45"/>
-      <c r="AE62" s="45"/>
-      <c r="AF62" s="45"/>
-      <c r="AG62" s="45"/>
-      <c r="AH62" s="45"/>
-      <c r="AI62" s="45"/>
-      <c r="AJ62" s="45"/>
-      <c r="AK62" s="45"/>
-      <c r="AL62" s="45"/>
-      <c r="AM62" s="45"/>
-      <c r="AN62" s="45"/>
-      <c r="AO62" s="46"/>
-      <c r="AP62" s="46"/>
-      <c r="AQ62" s="46"/>
-      <c r="AR62" s="46"/>
+      <c r="T62" s="43"/>
+      <c r="U62" s="43"/>
+      <c r="V62" s="43"/>
+      <c r="W62" s="43"/>
+      <c r="X62" s="43"/>
+      <c r="Y62" s="43"/>
+      <c r="Z62" s="43"/>
+      <c r="AA62" s="43"/>
+      <c r="AB62" s="43"/>
+      <c r="AC62" s="43"/>
+      <c r="AD62" s="44"/>
+      <c r="AE62" s="44"/>
+      <c r="AF62" s="44"/>
+      <c r="AG62" s="44"/>
+      <c r="AH62" s="44"/>
+      <c r="AI62" s="44"/>
+      <c r="AJ62" s="44"/>
+      <c r="AK62" s="44"/>
+      <c r="AL62" s="44"/>
+      <c r="AM62" s="44"/>
+      <c r="AN62" s="44"/>
+      <c r="AO62" s="45"/>
+      <c r="AP62" s="45"/>
+      <c r="AQ62" s="45"/>
+      <c r="AR62" s="45"/>
     </row>
     <row r="63" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S63" s="86"/>
-      <c r="T63" s="86"/>
-      <c r="U63" s="86"/>
+      <c r="S63" s="59"/>
+      <c r="T63" s="59"/>
+      <c r="U63" s="59"/>
     </row>
     <row r="64" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S64" s="86"/>
-      <c r="T64" s="86"/>
-      <c r="U64" s="86"/>
+      <c r="S64" s="59"/>
+      <c r="T64" s="59"/>
+      <c r="U64" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="A2:U2"/>
-    <mergeCell ref="G4:S4"/>
-    <mergeCell ref="B3:S3"/>
     <mergeCell ref="A1:AR1"/>
     <mergeCell ref="AO4:AR4"/>
     <mergeCell ref="T3:AR3"/>
     <mergeCell ref="AD4:AN4"/>
     <mergeCell ref="T4:AB4"/>
     <mergeCell ref="B4:F4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="A2:U2"/>
+    <mergeCell ref="G4:S4"/>
+    <mergeCell ref="B3:S3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="48" orientation="landscape" r:id="rId1"/>
